--- a/test_data/zeros4291images/10%procent/17_bins_noarea_zeros/test_data.xlsx
+++ b/test_data/zeros4291images/10%procent/17_bins_noarea_zeros/test_data.xlsx
@@ -391,10 +391,10 @@
         <v>62</v>
       </c>
       <c r="C2" t="n">
-        <v>42.59854057637248</v>
+        <v>42.10977602521473</v>
       </c>
       <c r="D2" t="n">
-        <v>19.40145942362752</v>
+        <v>19.89022397478527</v>
       </c>
     </row>
     <row r="3">
@@ -405,10 +405,10 @@
         <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>34.33654848489724</v>
+        <v>34.67546001585546</v>
       </c>
       <c r="D3" t="n">
-        <v>4.336548484897243</v>
+        <v>4.675460015855457</v>
       </c>
     </row>
     <row r="4">
@@ -419,10 +419,10 @@
         <v>75</v>
       </c>
       <c r="C4" t="n">
-        <v>67.203517919371</v>
+        <v>63.07388293048113</v>
       </c>
       <c r="D4" t="n">
-        <v>7.796482080629005</v>
+        <v>11.92611706951887</v>
       </c>
     </row>
     <row r="5">
@@ -433,10 +433,10 @@
         <v>75</v>
       </c>
       <c r="C5" t="n">
-        <v>66.90335264096684</v>
+        <v>65.9868244327737</v>
       </c>
       <c r="D5" t="n">
-        <v>8.096647359033156</v>
+        <v>9.013175567226298</v>
       </c>
     </row>
     <row r="6">
@@ -447,10 +447,10 @@
         <v>62</v>
       </c>
       <c r="C6" t="n">
-        <v>37.07652895803543</v>
+        <v>32.20931034531232</v>
       </c>
       <c r="D6" t="n">
-        <v>24.92347104196457</v>
+        <v>29.79068965468768</v>
       </c>
     </row>
     <row r="7">
@@ -461,10 +461,10 @@
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>2.557382178767082</v>
+        <v>2.130764941823358</v>
       </c>
       <c r="D7" t="n">
-        <v>7.442617821232918</v>
+        <v>7.869235058176642</v>
       </c>
     </row>
     <row r="8">
@@ -475,10 +475,10 @@
         <v>40</v>
       </c>
       <c r="C8" t="n">
-        <v>42.14813801112047</v>
+        <v>49.94008385508404</v>
       </c>
       <c r="D8" t="n">
-        <v>2.148138011120473</v>
+        <v>9.94008385508404</v>
       </c>
     </row>
     <row r="9">
@@ -489,10 +489,10 @@
         <v>50</v>
       </c>
       <c r="C9" t="n">
-        <v>58.56605624208758</v>
+        <v>56.84681255057021</v>
       </c>
       <c r="D9" t="n">
-        <v>8.566056242087583</v>
+        <v>6.846812550570213</v>
       </c>
     </row>
     <row r="10">
@@ -503,10 +503,10 @@
         <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>60.66097580081838</v>
+        <v>56.32885610874917</v>
       </c>
       <c r="D10" t="n">
-        <v>10.66097580081838</v>
+        <v>6.328856108749171</v>
       </c>
     </row>
     <row r="11">
@@ -517,10 +517,10 @@
         <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>17.87734949045594</v>
+        <v>18.94044202923869</v>
       </c>
       <c r="D11" t="n">
-        <v>2.122650509544059</v>
+        <v>1.059557970761308</v>
       </c>
     </row>
     <row r="12">
@@ -531,10 +531,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>4.557040298031194</v>
+        <v>3.786502772152728</v>
       </c>
       <c r="D12" t="n">
-        <v>4.557040298031194</v>
+        <v>3.786502772152728</v>
       </c>
     </row>
     <row r="13">
@@ -545,10 +545,10 @@
         <v>62</v>
       </c>
       <c r="C13" t="n">
-        <v>54.85403150144334</v>
+        <v>54.07827638115531</v>
       </c>
       <c r="D13" t="n">
-        <v>7.145968498556662</v>
+        <v>7.921723618844695</v>
       </c>
     </row>
     <row r="14">
@@ -559,10 +559,10 @@
         <v>75</v>
       </c>
       <c r="C14" t="n">
-        <v>61.59005459532277</v>
+        <v>56.2904961845221</v>
       </c>
       <c r="D14" t="n">
-        <v>13.40994540467723</v>
+        <v>18.7095038154779</v>
       </c>
     </row>
     <row r="15">
@@ -573,10 +573,10 @@
         <v>40</v>
       </c>
       <c r="C15" t="n">
-        <v>23.37613608304539</v>
+        <v>23.10064751623014</v>
       </c>
       <c r="D15" t="n">
-        <v>16.62386391695461</v>
+        <v>16.89935248376986</v>
       </c>
     </row>
     <row r="16">
@@ -587,10 +587,10 @@
         <v>40</v>
       </c>
       <c r="C16" t="n">
-        <v>54.3356383102398</v>
+        <v>47.69596058805357</v>
       </c>
       <c r="D16" t="n">
-        <v>14.3356383102398</v>
+        <v>7.695960588053566</v>
       </c>
     </row>
     <row r="17">
@@ -601,10 +601,10 @@
         <v>62</v>
       </c>
       <c r="C17" t="n">
-        <v>56.48651751786312</v>
+        <v>53.89969942651275</v>
       </c>
       <c r="D17" t="n">
-        <v>5.51348248213688</v>
+        <v>8.100300573487246</v>
       </c>
     </row>
     <row r="18">
@@ -615,10 +615,10 @@
         <v>62</v>
       </c>
       <c r="C18" t="n">
-        <v>57.48562699598889</v>
+        <v>49.07978659509197</v>
       </c>
       <c r="D18" t="n">
-        <v>4.514373004011105</v>
+        <v>12.92021340490803</v>
       </c>
     </row>
     <row r="19">
@@ -629,10 +629,10 @@
         <v>10</v>
       </c>
       <c r="C19" t="n">
-        <v>14.12511551727081</v>
+        <v>14.57972206890349</v>
       </c>
       <c r="D19" t="n">
-        <v>4.125115517270807</v>
+        <v>4.579722068903488</v>
       </c>
     </row>
     <row r="20">
@@ -643,10 +643,10 @@
         <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>-9.172240884889241</v>
+        <v>-6.842217311567357</v>
       </c>
       <c r="D20" t="n">
-        <v>19.17224088488924</v>
+        <v>16.84221731156736</v>
       </c>
     </row>
     <row r="21">
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>3.876872145369877</v>
+        <v>5.114595109899657</v>
       </c>
       <c r="D21" t="n">
-        <v>3.876872145369877</v>
+        <v>5.114595109899657</v>
       </c>
     </row>
     <row r="22">
@@ -671,10 +671,10 @@
         <v>10</v>
       </c>
       <c r="C22" t="n">
-        <v>14.98682125251421</v>
+        <v>15.29825251902677</v>
       </c>
       <c r="D22" t="n">
-        <v>4.986821252514211</v>
+        <v>5.298252519026768</v>
       </c>
     </row>
     <row r="23">
@@ -685,10 +685,10 @@
         <v>30</v>
       </c>
       <c r="C23" t="n">
-        <v>34.81039407648353</v>
+        <v>50.61629277444766</v>
       </c>
       <c r="D23" t="n">
-        <v>4.810394076483526</v>
+        <v>20.61629277444766</v>
       </c>
     </row>
     <row r="24">
@@ -699,10 +699,10 @@
         <v>50</v>
       </c>
       <c r="C24" t="n">
-        <v>37.93861137621307</v>
+        <v>43.96751039645157</v>
       </c>
       <c r="D24" t="n">
-        <v>12.06138862378693</v>
+        <v>6.032489603548427</v>
       </c>
     </row>
     <row r="25">
@@ -713,10 +713,10 @@
         <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>7.833930475073405</v>
+        <v>5.251856608720665</v>
       </c>
       <c r="D25" t="n">
-        <v>2.166069524926595</v>
+        <v>4.748143391279335</v>
       </c>
     </row>
     <row r="26">
@@ -727,10 +727,10 @@
         <v>10</v>
       </c>
       <c r="C26" t="n">
-        <v>8.170441068320883</v>
+        <v>8.307242123300901</v>
       </c>
       <c r="D26" t="n">
-        <v>1.829558931679117</v>
+        <v>1.692757876699099</v>
       </c>
     </row>
     <row r="27">
@@ -741,10 +741,10 @@
         <v>10</v>
       </c>
       <c r="C27" t="n">
-        <v>12.3105697075428</v>
+        <v>12.54661689939604</v>
       </c>
       <c r="D27" t="n">
-        <v>2.310569707542797</v>
+        <v>2.546616899396044</v>
       </c>
     </row>
     <row r="28">
@@ -755,10 +755,10 @@
         <v>75</v>
       </c>
       <c r="C28" t="n">
-        <v>29.66648201894949</v>
+        <v>37.16886728303732</v>
       </c>
       <c r="D28" t="n">
-        <v>45.33351798105051</v>
+        <v>37.83113271696268</v>
       </c>
     </row>
     <row r="29">
@@ -769,10 +769,10 @@
         <v>40</v>
       </c>
       <c r="C29" t="n">
-        <v>35.38577824752971</v>
+        <v>30.4448672625112</v>
       </c>
       <c r="D29" t="n">
-        <v>4.614221752470293</v>
+        <v>9.555132737488798</v>
       </c>
     </row>
     <row r="30">
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>3.314877430604561</v>
+        <v>3.943447479049993</v>
       </c>
       <c r="D30" t="n">
-        <v>3.314877430604561</v>
+        <v>3.943447479049993</v>
       </c>
     </row>
     <row r="31">
@@ -797,10 +797,10 @@
         <v>50</v>
       </c>
       <c r="C31" t="n">
-        <v>34.49774499197154</v>
+        <v>36.98503473150245</v>
       </c>
       <c r="D31" t="n">
-        <v>15.50225500802846</v>
+        <v>13.01496526849755</v>
       </c>
     </row>
     <row r="32">
@@ -811,10 +811,10 @@
         <v>40</v>
       </c>
       <c r="C32" t="n">
-        <v>48.48656679833351</v>
+        <v>51.51780189791267</v>
       </c>
       <c r="D32" t="n">
-        <v>8.486566798333513</v>
+        <v>11.51780189791267</v>
       </c>
     </row>
     <row r="33">
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>3.85543631808642</v>
+        <v>4.481080949455903</v>
       </c>
       <c r="D33" t="n">
-        <v>3.85543631808642</v>
+        <v>4.481080949455903</v>
       </c>
     </row>
     <row r="34">
@@ -839,10 +839,10 @@
         <v>50</v>
       </c>
       <c r="C34" t="n">
-        <v>53.22722755818028</v>
+        <v>45.32941349994981</v>
       </c>
       <c r="D34" t="n">
-        <v>3.227227558180282</v>
+        <v>4.670586500050192</v>
       </c>
     </row>
     <row r="35">
@@ -853,10 +853,10 @@
         <v>40</v>
       </c>
       <c r="C35" t="n">
-        <v>20.99535109949384</v>
+        <v>23.46718974280983</v>
       </c>
       <c r="D35" t="n">
-        <v>19.00464890050616</v>
+        <v>16.53281025719017</v>
       </c>
     </row>
     <row r="36">
@@ -867,10 +867,10 @@
         <v>10</v>
       </c>
       <c r="C36" t="n">
-        <v>13.08264124814462</v>
+        <v>13.81920888923824</v>
       </c>
       <c r="D36" t="n">
-        <v>3.082641248144618</v>
+        <v>3.81920888923824</v>
       </c>
     </row>
     <row r="37">
@@ -881,10 +881,10 @@
         <v>30</v>
       </c>
       <c r="C37" t="n">
-        <v>40.09952998300317</v>
+        <v>38.48966925648019</v>
       </c>
       <c r="D37" t="n">
-        <v>10.09952998300317</v>
+        <v>8.489669256480191</v>
       </c>
     </row>
     <row r="38">
@@ -895,10 +895,10 @@
         <v>50</v>
       </c>
       <c r="C38" t="n">
-        <v>41.80221190285765</v>
+        <v>44.34060912418565</v>
       </c>
       <c r="D38" t="n">
-        <v>8.19778809714235</v>
+        <v>5.659390875814346</v>
       </c>
     </row>
     <row r="39">
@@ -909,10 +909,10 @@
         <v>50</v>
       </c>
       <c r="C39" t="n">
-        <v>53.33487855757702</v>
+        <v>63.72224821088404</v>
       </c>
       <c r="D39" t="n">
-        <v>3.334878557577021</v>
+        <v>13.72224821088404</v>
       </c>
     </row>
     <row r="40">
@@ -923,10 +923,10 @@
         <v>30</v>
       </c>
       <c r="C40" t="n">
-        <v>53.51271400815286</v>
+        <v>53.38808958059363</v>
       </c>
       <c r="D40" t="n">
-        <v>23.51271400815286</v>
+        <v>23.38808958059363</v>
       </c>
     </row>
     <row r="41">
@@ -937,10 +937,10 @@
         <v>30</v>
       </c>
       <c r="C41" t="n">
-        <v>54.21188374953862</v>
+        <v>48.74016810494116</v>
       </c>
       <c r="D41" t="n">
-        <v>24.21188374953862</v>
+        <v>18.74016810494116</v>
       </c>
     </row>
     <row r="42">
@@ -951,10 +951,10 @@
         <v>62</v>
       </c>
       <c r="C42" t="n">
-        <v>50.52543616515979</v>
+        <v>47.06143981699137</v>
       </c>
       <c r="D42" t="n">
-        <v>11.47456383484021</v>
+        <v>14.93856018300863</v>
       </c>
     </row>
     <row r="43">
@@ -965,10 +965,10 @@
         <v>50</v>
       </c>
       <c r="C43" t="n">
-        <v>54.26810029679751</v>
+        <v>50.57419035638372</v>
       </c>
       <c r="D43" t="n">
-        <v>4.268100296797506</v>
+        <v>0.574190356383717</v>
       </c>
     </row>
     <row r="44">
@@ -979,10 +979,10 @@
         <v>62</v>
       </c>
       <c r="C44" t="n">
-        <v>42.62302322502423</v>
+        <v>36.89428374907641</v>
       </c>
       <c r="D44" t="n">
-        <v>19.37697677497577</v>
+        <v>25.10571625092359</v>
       </c>
     </row>
     <row r="45">
@@ -993,10 +993,10 @@
         <v>30</v>
       </c>
       <c r="C45" t="n">
-        <v>42.25468209575688</v>
+        <v>40.14445981307315</v>
       </c>
       <c r="D45" t="n">
-        <v>12.25468209575688</v>
+        <v>10.14445981307315</v>
       </c>
     </row>
     <row r="46">
@@ -1007,10 +1007,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>4.39733819455318</v>
+        <v>5.146513962851889</v>
       </c>
       <c r="D46" t="n">
-        <v>4.39733819455318</v>
+        <v>5.146513962851889</v>
       </c>
     </row>
     <row r="47">
@@ -1021,10 +1021,10 @@
         <v>30</v>
       </c>
       <c r="C47" t="n">
-        <v>24.8346141788517</v>
+        <v>41.89096593758172</v>
       </c>
       <c r="D47" t="n">
-        <v>5.165385821148298</v>
+        <v>11.89096593758172</v>
       </c>
     </row>
     <row r="48">
@@ -1035,10 +1035,10 @@
         <v>75</v>
       </c>
       <c r="C48" t="n">
-        <v>76.68882024500328</v>
+        <v>75.06691342440223</v>
       </c>
       <c r="D48" t="n">
-        <v>1.688820245003285</v>
+        <v>0.06691342440223025</v>
       </c>
     </row>
     <row r="49">
@@ -1049,10 +1049,10 @@
         <v>75</v>
       </c>
       <c r="C49" t="n">
-        <v>71.12664975141024</v>
+        <v>68.99161194431666</v>
       </c>
       <c r="D49" t="n">
-        <v>3.873350248589759</v>
+        <v>6.008388055683341</v>
       </c>
     </row>
     <row r="50">
@@ -1063,10 +1063,10 @@
         <v>40</v>
       </c>
       <c r="C50" t="n">
-        <v>33.66035176393041</v>
+        <v>43.89131855809537</v>
       </c>
       <c r="D50" t="n">
-        <v>6.339648236069593</v>
+        <v>3.891318558095371</v>
       </c>
     </row>
     <row r="51">
@@ -1077,10 +1077,10 @@
         <v>10</v>
       </c>
       <c r="C51" t="n">
-        <v>2.480479747969824</v>
+        <v>0.1110840268264859</v>
       </c>
       <c r="D51" t="n">
-        <v>7.519520252030176</v>
+        <v>9.888915973173514</v>
       </c>
     </row>
     <row r="52">
@@ -1091,10 +1091,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>29.04543318943084</v>
+        <v>46.37259199434116</v>
       </c>
       <c r="D52" t="n">
-        <v>10.95456681056916</v>
+        <v>6.372591994341157</v>
       </c>
     </row>
     <row r="53">
@@ -1105,10 +1105,10 @@
         <v>30</v>
       </c>
       <c r="C53" t="n">
-        <v>38.43793373987567</v>
+        <v>41.11995492924427</v>
       </c>
       <c r="D53" t="n">
-        <v>8.437933739875675</v>
+        <v>11.11995492924427</v>
       </c>
     </row>
     <row r="54">
@@ -1119,10 +1119,10 @@
         <v>40</v>
       </c>
       <c r="C54" t="n">
-        <v>42.70569221917457</v>
+        <v>43.5531657149896</v>
       </c>
       <c r="D54" t="n">
-        <v>2.705692219174566</v>
+        <v>3.553165714989596</v>
       </c>
     </row>
     <row r="55">
@@ -1133,10 +1133,10 @@
         <v>20</v>
       </c>
       <c r="C55" t="n">
-        <v>24.84398054237759</v>
+        <v>22.37611393790763</v>
       </c>
       <c r="D55" t="n">
-        <v>4.843980542377587</v>
+        <v>2.376113937907625</v>
       </c>
     </row>
     <row r="56">
@@ -1147,10 +1147,10 @@
         <v>40</v>
       </c>
       <c r="C56" t="n">
-        <v>60.9457876755451</v>
+        <v>64.73225998804006</v>
       </c>
       <c r="D56" t="n">
-        <v>20.9457876755451</v>
+        <v>24.73225998804006</v>
       </c>
     </row>
     <row r="57">
@@ -1161,10 +1161,10 @@
         <v>75</v>
       </c>
       <c r="C57" t="n">
-        <v>61.5408671085956</v>
+        <v>64.94238897189474</v>
       </c>
       <c r="D57" t="n">
-        <v>13.4591328914044</v>
+        <v>10.05761102810526</v>
       </c>
     </row>
     <row r="58">
@@ -1175,10 +1175,10 @@
         <v>20</v>
       </c>
       <c r="C58" t="n">
-        <v>35.35951568768805</v>
+        <v>32.51321602522904</v>
       </c>
       <c r="D58" t="n">
-        <v>15.35951568768805</v>
+        <v>12.51321602522904</v>
       </c>
     </row>
     <row r="59">
@@ -1189,10 +1189,10 @@
         <v>75</v>
       </c>
       <c r="C59" t="n">
-        <v>64.46842606100627</v>
+        <v>69.78643552274518</v>
       </c>
       <c r="D59" t="n">
-        <v>10.53157393899373</v>
+        <v>5.21356447725482</v>
       </c>
     </row>
     <row r="60">
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>4.786515709358029</v>
+        <v>5.65999176692404</v>
       </c>
       <c r="D60" t="n">
-        <v>4.786515709358029</v>
+        <v>5.65999176692404</v>
       </c>
     </row>
     <row r="61">
@@ -1217,10 +1217,10 @@
         <v>30</v>
       </c>
       <c r="C61" t="n">
-        <v>36.73431087189904</v>
+        <v>36.29853094852209</v>
       </c>
       <c r="D61" t="n">
-        <v>6.734310871899041</v>
+        <v>6.298530948522092</v>
       </c>
     </row>
     <row r="62">
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>3.326891873686515</v>
+        <v>2.999461608127239</v>
       </c>
       <c r="D62" t="n">
-        <v>3.326891873686515</v>
+        <v>2.999461608127239</v>
       </c>
     </row>
     <row r="63">
@@ -1245,10 +1245,10 @@
         <v>10</v>
       </c>
       <c r="C63" t="n">
-        <v>8.412615539610663</v>
+        <v>7.117019759786881</v>
       </c>
       <c r="D63" t="n">
-        <v>1.587384460389337</v>
+        <v>2.882980240213119</v>
       </c>
     </row>
     <row r="64">
@@ -1259,10 +1259,10 @@
         <v>62</v>
       </c>
       <c r="C64" t="n">
-        <v>56.14606938849941</v>
+        <v>50.4573198746744</v>
       </c>
       <c r="D64" t="n">
-        <v>5.853930611500594</v>
+        <v>11.5426801253256</v>
       </c>
     </row>
     <row r="65">
@@ -1273,10 +1273,10 @@
         <v>40</v>
       </c>
       <c r="C65" t="n">
-        <v>50.6560986897674</v>
+        <v>52.07202186042399</v>
       </c>
       <c r="D65" t="n">
-        <v>10.6560986897674</v>
+        <v>12.07202186042399</v>
       </c>
     </row>
     <row r="66">
@@ -1287,10 +1287,10 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>3.497409889152113</v>
+        <v>3.973071974845109</v>
       </c>
       <c r="D66" t="n">
-        <v>3.497409889152113</v>
+        <v>3.973071974845109</v>
       </c>
     </row>
     <row r="67">
@@ -1301,10 +1301,10 @@
         <v>20</v>
       </c>
       <c r="C67" t="n">
-        <v>14.08695504097028</v>
+        <v>24.45909626180092</v>
       </c>
       <c r="D67" t="n">
-        <v>5.913044959029719</v>
+        <v>4.459096261800919</v>
       </c>
     </row>
     <row r="68">
@@ -1315,10 +1315,10 @@
         <v>62</v>
       </c>
       <c r="C68" t="n">
-        <v>30.43727615754743</v>
+        <v>29.43975555774962</v>
       </c>
       <c r="D68" t="n">
-        <v>31.56272384245257</v>
+        <v>32.56024444225038</v>
       </c>
     </row>
     <row r="69">
@@ -1329,10 +1329,10 @@
         <v>75</v>
       </c>
       <c r="C69" t="n">
-        <v>48.41764727752361</v>
+        <v>46.66664596311493</v>
       </c>
       <c r="D69" t="n">
-        <v>26.58235272247639</v>
+        <v>28.33335403688507</v>
       </c>
     </row>
     <row r="70">
@@ -1343,10 +1343,10 @@
         <v>75</v>
       </c>
       <c r="C70" t="n">
-        <v>68.18575659011958</v>
+        <v>62.46629307058929</v>
       </c>
       <c r="D70" t="n">
-        <v>6.814243409880419</v>
+        <v>12.53370692941071</v>
       </c>
     </row>
     <row r="71">
@@ -1357,10 +1357,10 @@
         <v>20</v>
       </c>
       <c r="C71" t="n">
-        <v>35.69388588456809</v>
+        <v>32.906342335947</v>
       </c>
       <c r="D71" t="n">
-        <v>15.69388588456809</v>
+        <v>12.906342335947</v>
       </c>
     </row>
     <row r="72">
@@ -1371,10 +1371,10 @@
         <v>40</v>
       </c>
       <c r="C72" t="n">
-        <v>44.99953230682042</v>
+        <v>49.4116115220763</v>
       </c>
       <c r="D72" t="n">
-        <v>4.99953230682042</v>
+        <v>9.411611522076299</v>
       </c>
     </row>
     <row r="73">
@@ -1385,10 +1385,10 @@
         <v>75</v>
       </c>
       <c r="C73" t="n">
-        <v>63.29548474446284</v>
+        <v>62.40426132052962</v>
       </c>
       <c r="D73" t="n">
-        <v>11.70451525553716</v>
+        <v>12.59573867947038</v>
       </c>
     </row>
     <row r="74">
@@ -1399,10 +1399,10 @@
         <v>75</v>
       </c>
       <c r="C74" t="n">
-        <v>78.55762185885435</v>
+        <v>78.04454563360309</v>
       </c>
       <c r="D74" t="n">
-        <v>3.557621858854347</v>
+        <v>3.044545633603093</v>
       </c>
     </row>
     <row r="75">
@@ -1413,10 +1413,10 @@
         <v>40</v>
       </c>
       <c r="C75" t="n">
-        <v>47.55075614824181</v>
+        <v>52.22769359756039</v>
       </c>
       <c r="D75" t="n">
-        <v>7.55075614824181</v>
+        <v>12.22769359756039</v>
       </c>
     </row>
     <row r="76">
@@ -1427,10 +1427,10 @@
         <v>50</v>
       </c>
       <c r="C76" t="n">
-        <v>46.68262594138097</v>
+        <v>47.27832877985966</v>
       </c>
       <c r="D76" t="n">
-        <v>3.317374058619031</v>
+        <v>2.721671220140344</v>
       </c>
     </row>
     <row r="77">
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>1.103393576477653</v>
+        <v>0.2800171891816206</v>
       </c>
       <c r="D77" t="n">
-        <v>1.103393576477653</v>
+        <v>0.2800171891816206</v>
       </c>
     </row>
     <row r="78">
@@ -1455,10 +1455,10 @@
         <v>10</v>
       </c>
       <c r="C78" t="n">
-        <v>1.970281645087091</v>
+        <v>1.806919035510449</v>
       </c>
       <c r="D78" t="n">
-        <v>8.029718354912909</v>
+        <v>8.193080964489551</v>
       </c>
     </row>
     <row r="79">
@@ -1469,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>3.24583714166736</v>
+        <v>3.8683156211849</v>
       </c>
       <c r="D79" t="n">
-        <v>3.24583714166736</v>
+        <v>3.8683156211849</v>
       </c>
     </row>
     <row r="80">
@@ -1483,10 +1483,10 @@
         <v>62</v>
       </c>
       <c r="C80" t="n">
-        <v>50.28605753413245</v>
+        <v>47.78846753761367</v>
       </c>
       <c r="D80" t="n">
-        <v>11.71394246586755</v>
+        <v>14.21153246238633</v>
       </c>
     </row>
     <row r="81">
@@ -1497,10 +1497,10 @@
         <v>50</v>
       </c>
       <c r="C81" t="n">
-        <v>61.27396879453071</v>
+        <v>58.00593997883196</v>
       </c>
       <c r="D81" t="n">
-        <v>11.27396879453071</v>
+        <v>8.005939978831961</v>
       </c>
     </row>
     <row r="82">
@@ -1511,10 +1511,10 @@
         <v>40</v>
       </c>
       <c r="C82" t="n">
-        <v>48.58194648122591</v>
+        <v>52.46819717665336</v>
       </c>
       <c r="D82" t="n">
-        <v>8.581946481225913</v>
+        <v>12.46819717665336</v>
       </c>
     </row>
     <row r="83">
@@ -1525,10 +1525,10 @@
         <v>30</v>
       </c>
       <c r="C83" t="n">
-        <v>41.44929151633652</v>
+        <v>38.99294922808004</v>
       </c>
       <c r="D83" t="n">
-        <v>11.44929151633652</v>
+        <v>8.992949228080036</v>
       </c>
     </row>
     <row r="84">
@@ -1539,10 +1539,10 @@
         <v>62</v>
       </c>
       <c r="C84" t="n">
-        <v>48.69377252522916</v>
+        <v>49.22271683419048</v>
       </c>
       <c r="D84" t="n">
-        <v>13.30622747477084</v>
+        <v>12.77728316580952</v>
       </c>
     </row>
     <row r="85">
@@ -1553,10 +1553,10 @@
         <v>62</v>
       </c>
       <c r="C85" t="n">
-        <v>51.57716283808688</v>
+        <v>48.09366481887568</v>
       </c>
       <c r="D85" t="n">
-        <v>10.42283716191312</v>
+        <v>13.90633518112432</v>
       </c>
     </row>
     <row r="86">
@@ -1567,10 +1567,10 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>3.856039371773479</v>
+        <v>4.024946917366604</v>
       </c>
       <c r="D86" t="n">
-        <v>3.856039371773479</v>
+        <v>4.024946917366604</v>
       </c>
     </row>
     <row r="87">
@@ -1581,10 +1581,10 @@
         <v>40</v>
       </c>
       <c r="C87" t="n">
-        <v>48.26718421456411</v>
+        <v>50.75728958492147</v>
       </c>
       <c r="D87" t="n">
-        <v>8.267184214564111</v>
+        <v>10.75728958492147</v>
       </c>
     </row>
     <row r="88">
@@ -1595,10 +1595,10 @@
         <v>75</v>
       </c>
       <c r="C88" t="n">
-        <v>37.43016642150185</v>
+        <v>38.05406496000146</v>
       </c>
       <c r="D88" t="n">
-        <v>37.56983357849815</v>
+        <v>36.94593503999854</v>
       </c>
     </row>
     <row r="89">
@@ -1609,10 +1609,10 @@
         <v>62</v>
       </c>
       <c r="C89" t="n">
-        <v>46.7459049366044</v>
+        <v>39.52968127046925</v>
       </c>
       <c r="D89" t="n">
-        <v>15.2540950633956</v>
+        <v>22.47031872953075</v>
       </c>
     </row>
     <row r="90">
@@ -1623,10 +1623,10 @@
         <v>20</v>
       </c>
       <c r="C90" t="n">
-        <v>24.28863982294401</v>
+        <v>21.85152755275783</v>
       </c>
       <c r="D90" t="n">
-        <v>4.288639822944006</v>
+        <v>1.85152755275783</v>
       </c>
     </row>
     <row r="91">
@@ -1637,10 +1637,10 @@
         <v>30</v>
       </c>
       <c r="C91" t="n">
-        <v>34.74106402391698</v>
+        <v>35.9289893692022</v>
       </c>
       <c r="D91" t="n">
-        <v>4.741064023916984</v>
+        <v>5.928989369202199</v>
       </c>
     </row>
     <row r="92">
@@ -1651,10 +1651,10 @@
         <v>75</v>
       </c>
       <c r="C92" t="n">
-        <v>81.54831052276965</v>
+        <v>80.54817274584302</v>
       </c>
       <c r="D92" t="n">
-        <v>6.548310522769654</v>
+        <v>5.548172745843019</v>
       </c>
     </row>
     <row r="93">
@@ -1665,10 +1665,10 @@
         <v>30</v>
       </c>
       <c r="C93" t="n">
-        <v>39.2769477317316</v>
+        <v>37.95068618653994</v>
       </c>
       <c r="D93" t="n">
-        <v>9.276947731731596</v>
+        <v>7.95068618653994</v>
       </c>
     </row>
     <row r="94">
@@ -1679,10 +1679,10 @@
         <v>62</v>
       </c>
       <c r="C94" t="n">
-        <v>43.30503008748077</v>
+        <v>43.86576288986262</v>
       </c>
       <c r="D94" t="n">
-        <v>18.69496991251923</v>
+        <v>18.13423711013738</v>
       </c>
     </row>
     <row r="95">
@@ -1693,10 +1693,10 @@
         <v>50</v>
       </c>
       <c r="C95" t="n">
-        <v>52.22586298990309</v>
+        <v>56.96720922053635</v>
       </c>
       <c r="D95" t="n">
-        <v>2.225862989903085</v>
+        <v>6.967209220536347</v>
       </c>
     </row>
     <row r="96">
@@ -1707,10 +1707,10 @@
         <v>10</v>
       </c>
       <c r="C96" t="n">
-        <v>23.54151902292457</v>
+        <v>25.55670552723826</v>
       </c>
       <c r="D96" t="n">
-        <v>13.54151902292457</v>
+        <v>15.55670552723826</v>
       </c>
     </row>
     <row r="97">
@@ -1721,10 +1721,10 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>5.15769268607413</v>
+        <v>5.544481462501341</v>
       </c>
       <c r="D97" t="n">
-        <v>5.15769268607413</v>
+        <v>5.544481462501341</v>
       </c>
     </row>
     <row r="98">
@@ -1735,10 +1735,10 @@
         <v>50</v>
       </c>
       <c r="C98" t="n">
-        <v>47.23140047782213</v>
+        <v>48.27526581675057</v>
       </c>
       <c r="D98" t="n">
-        <v>2.768599522177873</v>
+        <v>1.724734183249431</v>
       </c>
     </row>
     <row r="99">
@@ -1749,10 +1749,10 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>1.255347328628347</v>
+        <v>1.170727444285399</v>
       </c>
       <c r="D99" t="n">
-        <v>1.255347328628347</v>
+        <v>1.170727444285399</v>
       </c>
     </row>
     <row r="100">
@@ -1763,10 +1763,10 @@
         <v>62</v>
       </c>
       <c r="C100" t="n">
-        <v>47.73644490611596</v>
+        <v>42.22024606525089</v>
       </c>
       <c r="D100" t="n">
-        <v>14.26355509388404</v>
+        <v>19.77975393474911</v>
       </c>
     </row>
     <row r="101">
@@ -1777,10 +1777,10 @@
         <v>62</v>
       </c>
       <c r="C101" t="n">
-        <v>41.89315090455266</v>
+        <v>44.84075371108683</v>
       </c>
       <c r="D101" t="n">
-        <v>20.10684909544734</v>
+        <v>17.15924628891317</v>
       </c>
     </row>
     <row r="102">
@@ -1791,10 +1791,10 @@
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>-3.508098284339621</v>
+        <v>-4.086231541709226</v>
       </c>
       <c r="D102" t="n">
-        <v>3.508098284339621</v>
+        <v>4.086231541709226</v>
       </c>
     </row>
     <row r="103">
@@ -1805,10 +1805,10 @@
         <v>50</v>
       </c>
       <c r="C103" t="n">
-        <v>61.87223325118905</v>
+        <v>56.29780990977524</v>
       </c>
       <c r="D103" t="n">
-        <v>11.87223325118905</v>
+        <v>6.297809909775239</v>
       </c>
     </row>
     <row r="104">
@@ -1819,10 +1819,10 @@
         <v>30</v>
       </c>
       <c r="C104" t="n">
-        <v>36.78507135706202</v>
+        <v>34.70937980009331</v>
       </c>
       <c r="D104" t="n">
-        <v>6.785071357062016</v>
+        <v>4.709379800093309</v>
       </c>
     </row>
     <row r="105">
@@ -1833,10 +1833,10 @@
         <v>20</v>
       </c>
       <c r="C105" t="n">
-        <v>23.8360390023194</v>
+        <v>26.42406456941482</v>
       </c>
       <c r="D105" t="n">
-        <v>3.836039002319396</v>
+        <v>6.424064569414821</v>
       </c>
     </row>
     <row r="106">
@@ -1847,10 +1847,10 @@
         <v>62</v>
       </c>
       <c r="C106" t="n">
-        <v>41.44947257880003</v>
+        <v>39.56596916493467</v>
       </c>
       <c r="D106" t="n">
-        <v>20.55052742119997</v>
+        <v>22.43403083506533</v>
       </c>
     </row>
     <row r="107">
@@ -1861,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>3.126003915395589</v>
+        <v>3.886858913094786</v>
       </c>
       <c r="D107" t="n">
-        <v>3.126003915395589</v>
+        <v>3.886858913094786</v>
       </c>
     </row>
     <row r="108">
@@ -1875,10 +1875,10 @@
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>3.655389910357173</v>
+        <v>4.418548834837643</v>
       </c>
       <c r="D108" t="n">
-        <v>3.655389910357173</v>
+        <v>4.418548834837643</v>
       </c>
     </row>
     <row r="109">
@@ -1889,10 +1889,10 @@
         <v>10</v>
       </c>
       <c r="C109" t="n">
-        <v>7.219300692294354</v>
+        <v>6.056023488618752</v>
       </c>
       <c r="D109" t="n">
-        <v>2.780699307705646</v>
+        <v>3.943976511381248</v>
       </c>
     </row>
     <row r="110">
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>3.253501585400368</v>
+        <v>3.041206461906855</v>
       </c>
       <c r="D110" t="n">
-        <v>3.253501585400368</v>
+        <v>3.041206461906855</v>
       </c>
     </row>
     <row r="111">
@@ -1917,10 +1917,10 @@
         <v>62</v>
       </c>
       <c r="C111" t="n">
-        <v>48.03481417572826</v>
+        <v>47.60574538918911</v>
       </c>
       <c r="D111" t="n">
-        <v>13.96518582427174</v>
+        <v>14.39425461081089</v>
       </c>
     </row>
     <row r="112">
@@ -1931,10 +1931,10 @@
         <v>40</v>
       </c>
       <c r="C112" t="n">
-        <v>32.41482327800678</v>
+        <v>34.10605079309934</v>
       </c>
       <c r="D112" t="n">
-        <v>7.585176721993221</v>
+        <v>5.893949206900658</v>
       </c>
     </row>
     <row r="113">
@@ -1945,10 +1945,10 @@
         <v>20</v>
       </c>
       <c r="C113" t="n">
-        <v>45.25380196882361</v>
+        <v>38.40169951793155</v>
       </c>
       <c r="D113" t="n">
-        <v>25.25380196882361</v>
+        <v>18.40169951793155</v>
       </c>
     </row>
     <row r="114">
@@ -1959,10 +1959,10 @@
         <v>10</v>
       </c>
       <c r="C114" t="n">
-        <v>11.46537314271105</v>
+        <v>7.037910960708555</v>
       </c>
       <c r="D114" t="n">
-        <v>1.465373142711048</v>
+        <v>2.962089039291445</v>
       </c>
     </row>
     <row r="115">
@@ -1973,10 +1973,10 @@
         <v>75</v>
       </c>
       <c r="C115" t="n">
-        <v>74.15178619551513</v>
+        <v>70.85776376409186</v>
       </c>
       <c r="D115" t="n">
-        <v>0.848213804484871</v>
+        <v>4.142236235908143</v>
       </c>
     </row>
     <row r="116">
@@ -1987,10 +1987,10 @@
         <v>40</v>
       </c>
       <c r="C116" t="n">
-        <v>47.97978997419865</v>
+        <v>40.59565896608996</v>
       </c>
       <c r="D116" t="n">
-        <v>7.979789974198646</v>
+        <v>0.5956589660899567</v>
       </c>
     </row>
     <row r="117">
@@ -2001,10 +2001,10 @@
         <v>75</v>
       </c>
       <c r="C117" t="n">
-        <v>74.10267573589547</v>
+        <v>82.74825082553903</v>
       </c>
       <c r="D117" t="n">
-        <v>0.897324264104526</v>
+        <v>7.748250825539031</v>
       </c>
     </row>
     <row r="118">
@@ -2015,10 +2015,10 @@
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>3.967867307625792</v>
+        <v>3.766412870666549</v>
       </c>
       <c r="D118" t="n">
-        <v>3.967867307625792</v>
+        <v>3.766412870666549</v>
       </c>
     </row>
     <row r="119">
@@ -2029,10 +2029,10 @@
         <v>62</v>
       </c>
       <c r="C119" t="n">
-        <v>54.77804953250347</v>
+        <v>47.46742508309116</v>
       </c>
       <c r="D119" t="n">
-        <v>7.221950467496534</v>
+        <v>14.53257491690884</v>
       </c>
     </row>
     <row r="120">
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>2.230611973579338</v>
+        <v>2.395044261544137</v>
       </c>
       <c r="D120" t="n">
-        <v>2.230611973579338</v>
+        <v>2.395044261544137</v>
       </c>
     </row>
     <row r="121">
@@ -2057,10 +2057,10 @@
         <v>62</v>
       </c>
       <c r="C121" t="n">
-        <v>57.79140748077361</v>
+        <v>54.58194184653359</v>
       </c>
       <c r="D121" t="n">
-        <v>4.208592519226386</v>
+        <v>7.418058153466411</v>
       </c>
     </row>
     <row r="122">
@@ -2071,10 +2071,10 @@
         <v>62</v>
       </c>
       <c r="C122" t="n">
-        <v>57.23619279188046</v>
+        <v>54.17953934344256</v>
       </c>
       <c r="D122" t="n">
-        <v>4.763807208119538</v>
+        <v>7.820460656557444</v>
       </c>
     </row>
     <row r="123">
@@ -2085,10 +2085,10 @@
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>3.375111911770525</v>
+        <v>4.442216632421783</v>
       </c>
       <c r="D123" t="n">
-        <v>3.375111911770525</v>
+        <v>4.442216632421783</v>
       </c>
     </row>
     <row r="124">
@@ -2099,10 +2099,10 @@
         <v>30</v>
       </c>
       <c r="C124" t="n">
-        <v>46.89567803725599</v>
+        <v>52.44611310103596</v>
       </c>
       <c r="D124" t="n">
-        <v>16.89567803725599</v>
+        <v>22.44611310103596</v>
       </c>
     </row>
     <row r="125">
@@ -2113,10 +2113,10 @@
         <v>30</v>
       </c>
       <c r="C125" t="n">
-        <v>38.36805843293819</v>
+        <v>40.22652399827678</v>
       </c>
       <c r="D125" t="n">
-        <v>8.368058432938192</v>
+        <v>10.22652399827678</v>
       </c>
     </row>
     <row r="126">
@@ -2127,10 +2127,10 @@
         <v>75</v>
       </c>
       <c r="C126" t="n">
-        <v>76.1477776057994</v>
+        <v>76.54751600903025</v>
       </c>
       <c r="D126" t="n">
-        <v>1.147777605799405</v>
+        <v>1.547516009030247</v>
       </c>
     </row>
     <row r="127">
@@ -2141,10 +2141,10 @@
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.2365121966100474</v>
+        <v>0.5697321748364388</v>
       </c>
       <c r="D127" t="n">
-        <v>0.2365121966100474</v>
+        <v>0.5697321748364388</v>
       </c>
     </row>
     <row r="128">
@@ -2155,10 +2155,10 @@
         <v>40</v>
       </c>
       <c r="C128" t="n">
-        <v>41.48322941374866</v>
+        <v>38.81715065245773</v>
       </c>
       <c r="D128" t="n">
-        <v>1.48322941374866</v>
+        <v>1.182849347542266</v>
       </c>
     </row>
     <row r="129">
@@ -2169,10 +2169,10 @@
         <v>75</v>
       </c>
       <c r="C129" t="n">
-        <v>72.29047929114932</v>
+        <v>68.78682003059349</v>
       </c>
       <c r="D129" t="n">
-        <v>2.709520708850675</v>
+        <v>6.213179969406511</v>
       </c>
     </row>
     <row r="130">
@@ -2183,10 +2183,10 @@
         <v>75</v>
       </c>
       <c r="C130" t="n">
-        <v>82.43023113785557</v>
+        <v>76.02971478595263</v>
       </c>
       <c r="D130" t="n">
-        <v>7.430231137855571</v>
+        <v>1.029714785952635</v>
       </c>
     </row>
     <row r="131">
@@ -2197,10 +2197,10 @@
         <v>30</v>
       </c>
       <c r="C131" t="n">
-        <v>33.97791697474636</v>
+        <v>40.58878816186162</v>
       </c>
       <c r="D131" t="n">
-        <v>3.977916974746357</v>
+        <v>10.58878816186162</v>
       </c>
     </row>
     <row r="132">
@@ -2211,10 +2211,10 @@
         <v>50</v>
       </c>
       <c r="C132" t="n">
-        <v>57.03268740726911</v>
+        <v>53.58149397721498</v>
       </c>
       <c r="D132" t="n">
-        <v>7.032687407269108</v>
+        <v>3.581493977214983</v>
       </c>
     </row>
     <row r="133">
@@ -2225,10 +2225,10 @@
         <v>20</v>
       </c>
       <c r="C133" t="n">
-        <v>13.80420518029194</v>
+        <v>20.14368683861865</v>
       </c>
       <c r="D133" t="n">
-        <v>6.195794819708055</v>
+        <v>0.1436868386186489</v>
       </c>
     </row>
     <row r="134">
@@ -2239,10 +2239,10 @@
         <v>40</v>
       </c>
       <c r="C134" t="n">
-        <v>50.96857529710675</v>
+        <v>47.44586834602867</v>
       </c>
       <c r="D134" t="n">
-        <v>10.96857529710675</v>
+        <v>7.445868346028668</v>
       </c>
     </row>
     <row r="135">
@@ -2253,10 +2253,10 @@
         <v>62</v>
       </c>
       <c r="C135" t="n">
-        <v>58.2785233904676</v>
+        <v>51.46538956833146</v>
       </c>
       <c r="D135" t="n">
-        <v>3.721476609532402</v>
+        <v>10.53461043166854</v>
       </c>
     </row>
     <row r="136">
@@ -2267,10 +2267,10 @@
         <v>30</v>
       </c>
       <c r="C136" t="n">
-        <v>51.06714188257766</v>
+        <v>52.53889831586152</v>
       </c>
       <c r="D136" t="n">
-        <v>21.06714188257766</v>
+        <v>22.53889831586152</v>
       </c>
     </row>
     <row r="137">
@@ -2281,10 +2281,10 @@
         <v>75</v>
       </c>
       <c r="C137" t="n">
-        <v>61.87562425928795</v>
+        <v>62.05072137907792</v>
       </c>
       <c r="D137" t="n">
-        <v>13.12437574071205</v>
+        <v>12.94927862092208</v>
       </c>
     </row>
     <row r="138">
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>2.525208374652354</v>
+        <v>1.329504548191634</v>
       </c>
       <c r="D138" t="n">
-        <v>2.525208374652354</v>
+        <v>1.329504548191634</v>
       </c>
     </row>
     <row r="139">
@@ -2309,10 +2309,10 @@
         <v>20</v>
       </c>
       <c r="C139" t="n">
-        <v>39.42018963259449</v>
+        <v>29.63449039539122</v>
       </c>
       <c r="D139" t="n">
-        <v>19.42018963259449</v>
+        <v>9.634490395391222</v>
       </c>
     </row>
     <row r="140">
@@ -2323,10 +2323,10 @@
         <v>75</v>
       </c>
       <c r="C140" t="n">
-        <v>83.20964056896725</v>
+        <v>95.65404724008046</v>
       </c>
       <c r="D140" t="n">
-        <v>8.209640568967245</v>
+        <v>20.65404724008046</v>
       </c>
     </row>
     <row r="141">
@@ -2337,10 +2337,10 @@
         <v>20</v>
       </c>
       <c r="C141" t="n">
-        <v>26.26950388308745</v>
+        <v>25.17413144859794</v>
       </c>
       <c r="D141" t="n">
-        <v>6.269503883087452</v>
+        <v>5.174131448597937</v>
       </c>
     </row>
     <row r="142">
@@ -2351,10 +2351,10 @@
         <v>62</v>
       </c>
       <c r="C142" t="n">
-        <v>41.25117521700022</v>
+        <v>40.46157744406165</v>
       </c>
       <c r="D142" t="n">
-        <v>20.74882478299978</v>
+        <v>21.53842255593835</v>
       </c>
     </row>
     <row r="143">
@@ -2365,10 +2365,10 @@
         <v>10</v>
       </c>
       <c r="C143" t="n">
-        <v>14.89492686771989</v>
+        <v>21.22297327272806</v>
       </c>
       <c r="D143" t="n">
-        <v>4.894926867719889</v>
+        <v>11.22297327272806</v>
       </c>
     </row>
     <row r="144">
@@ -2379,10 +2379,10 @@
         <v>50</v>
       </c>
       <c r="C144" t="n">
-        <v>47.29513374640472</v>
+        <v>37.20064959104435</v>
       </c>
       <c r="D144" t="n">
-        <v>2.704866253595284</v>
+        <v>12.79935040895565</v>
       </c>
     </row>
     <row r="145">
@@ -2393,10 +2393,10 @@
         <v>20</v>
       </c>
       <c r="C145" t="n">
-        <v>28.70358462515622</v>
+        <v>31.03093656621268</v>
       </c>
       <c r="D145" t="n">
-        <v>8.703584625156225</v>
+        <v>11.03093656621268</v>
       </c>
     </row>
     <row r="146">
@@ -2407,10 +2407,10 @@
         <v>40</v>
       </c>
       <c r="C146" t="n">
-        <v>42.98105203571023</v>
+        <v>39.98182747495316</v>
       </c>
       <c r="D146" t="n">
-        <v>2.981052035710228</v>
+        <v>0.01817252504684319</v>
       </c>
     </row>
     <row r="147">
@@ -2421,10 +2421,10 @@
         <v>75</v>
       </c>
       <c r="C147" t="n">
-        <v>72.81960090786559</v>
+        <v>75.48199377426255</v>
       </c>
       <c r="D147" t="n">
-        <v>2.180399092134408</v>
+        <v>0.4819937742625484</v>
       </c>
     </row>
     <row r="148">
@@ -2435,10 +2435,10 @@
         <v>75</v>
       </c>
       <c r="C148" t="n">
-        <v>48.28711921676482</v>
+        <v>46.35212037107529</v>
       </c>
       <c r="D148" t="n">
-        <v>26.71288078323518</v>
+        <v>28.64787962892471</v>
       </c>
     </row>
     <row r="149">
@@ -2449,10 +2449,10 @@
         <v>62</v>
       </c>
       <c r="C149" t="n">
-        <v>49.63749119191126</v>
+        <v>50.82888388788659</v>
       </c>
       <c r="D149" t="n">
-        <v>12.36250880808874</v>
+        <v>11.17111611211341</v>
       </c>
     </row>
     <row r="150">
@@ -2463,10 +2463,10 @@
         <v>75</v>
       </c>
       <c r="C150" t="n">
-        <v>49.45175679875844</v>
+        <v>55.80779617464231</v>
       </c>
       <c r="D150" t="n">
-        <v>25.54824320124156</v>
+        <v>19.19220382535769</v>
       </c>
     </row>
     <row r="151">
@@ -2477,10 +2477,10 @@
         <v>40</v>
       </c>
       <c r="C151" t="n">
-        <v>36.37957025967621</v>
+        <v>44.26233382988616</v>
       </c>
       <c r="D151" t="n">
-        <v>3.620429740323786</v>
+        <v>4.26233382988616</v>
       </c>
     </row>
     <row r="152">
@@ -2491,10 +2491,10 @@
         <v>40</v>
       </c>
       <c r="C152" t="n">
-        <v>49.64403352345282</v>
+        <v>51.24501565772977</v>
       </c>
       <c r="D152" t="n">
-        <v>9.644033523452819</v>
+        <v>11.24501565772977</v>
       </c>
     </row>
     <row r="153">
@@ -2505,10 +2505,10 @@
         <v>62</v>
       </c>
       <c r="C153" t="n">
-        <v>47.66768431714548</v>
+        <v>43.84557736502838</v>
       </c>
       <c r="D153" t="n">
-        <v>14.33231568285452</v>
+        <v>18.15442263497162</v>
       </c>
     </row>
     <row r="154">
@@ -2519,10 +2519,10 @@
         <v>20</v>
       </c>
       <c r="C154" t="n">
-        <v>14.15455011271754</v>
+        <v>20.31121597994337</v>
       </c>
       <c r="D154" t="n">
-        <v>5.845449887282456</v>
+        <v>0.3112159799433734</v>
       </c>
     </row>
     <row r="155">
@@ -2533,10 +2533,10 @@
         <v>10</v>
       </c>
       <c r="C155" t="n">
-        <v>2.981865356776368</v>
+        <v>4.294168713387704</v>
       </c>
       <c r="D155" t="n">
-        <v>7.018134643223632</v>
+        <v>5.705831286612296</v>
       </c>
     </row>
     <row r="156">
@@ -2547,10 +2547,10 @@
         <v>30</v>
       </c>
       <c r="C156" t="n">
-        <v>36.35046111934202</v>
+        <v>34.96212827501224</v>
       </c>
       <c r="D156" t="n">
-        <v>6.350461119342022</v>
+        <v>4.96212827501224</v>
       </c>
     </row>
     <row r="157">
@@ -2561,10 +2561,10 @@
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>3.164250012657261</v>
+        <v>4.999131899616144</v>
       </c>
       <c r="D157" t="n">
-        <v>3.164250012657261</v>
+        <v>4.999131899616144</v>
       </c>
     </row>
     <row r="158">
@@ -2575,10 +2575,10 @@
         <v>40</v>
       </c>
       <c r="C158" t="n">
-        <v>64.13424960282245</v>
+        <v>69.92135638882358</v>
       </c>
       <c r="D158" t="n">
-        <v>24.13424960282245</v>
+        <v>29.92135638882358</v>
       </c>
     </row>
     <row r="159">
@@ -2589,10 +2589,10 @@
         <v>62</v>
       </c>
       <c r="C159" t="n">
-        <v>58.95323158596145</v>
+        <v>52.04860835693425</v>
       </c>
       <c r="D159" t="n">
-        <v>3.046768414038553</v>
+        <v>9.951391643065747</v>
       </c>
     </row>
     <row r="160">
@@ -2603,10 +2603,10 @@
         <v>30</v>
       </c>
       <c r="C160" t="n">
-        <v>45.52184330160224</v>
+        <v>51.55955002586384</v>
       </c>
       <c r="D160" t="n">
-        <v>15.52184330160224</v>
+        <v>21.55955002586384</v>
       </c>
     </row>
     <row r="161">
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>1.469406836787203</v>
+        <v>3.035328648183822</v>
       </c>
       <c r="D161" t="n">
-        <v>1.469406836787203</v>
+        <v>3.035328648183822</v>
       </c>
     </row>
     <row r="162">
@@ -2631,10 +2631,10 @@
         <v>62</v>
       </c>
       <c r="C162" t="n">
-        <v>55.95302447485928</v>
+        <v>51.85086155048931</v>
       </c>
       <c r="D162" t="n">
-        <v>6.046975525140724</v>
+        <v>10.14913844951069</v>
       </c>
     </row>
     <row r="163">
@@ -2645,10 +2645,10 @@
         <v>20</v>
       </c>
       <c r="C163" t="n">
-        <v>21.12433339030478</v>
+        <v>20.3121189584573</v>
       </c>
       <c r="D163" t="n">
-        <v>1.124333390304777</v>
+        <v>0.312118958457301</v>
       </c>
     </row>
     <row r="164">
@@ -2659,10 +2659,10 @@
         <v>20</v>
       </c>
       <c r="C164" t="n">
-        <v>21.90875946628214</v>
+        <v>34.13819230335006</v>
       </c>
       <c r="D164" t="n">
-        <v>1.908759466282142</v>
+        <v>14.13819230335006</v>
       </c>
     </row>
     <row r="165">
@@ -2673,10 +2673,10 @@
         <v>10</v>
       </c>
       <c r="C165" t="n">
-        <v>9.910876810995191</v>
+        <v>8.280028183892391</v>
       </c>
       <c r="D165" t="n">
-        <v>0.08912318900480898</v>
+        <v>1.719971816107609</v>
       </c>
     </row>
     <row r="166">
@@ -2687,10 +2687,10 @@
         <v>75</v>
       </c>
       <c r="C166" t="n">
-        <v>62.073231606616</v>
+        <v>63.40803512455305</v>
       </c>
       <c r="D166" t="n">
-        <v>12.926768393384</v>
+        <v>11.59196487544695</v>
       </c>
     </row>
     <row r="167">
@@ -2701,10 +2701,10 @@
         <v>50</v>
       </c>
       <c r="C167" t="n">
-        <v>64.25816192700839</v>
+        <v>58.02427023049208</v>
       </c>
       <c r="D167" t="n">
-        <v>14.25816192700839</v>
+        <v>8.024270230492078</v>
       </c>
     </row>
     <row r="168">
@@ -2715,10 +2715,10 @@
         <v>10</v>
       </c>
       <c r="C168" t="n">
-        <v>6.884525607973359</v>
+        <v>3.263360092128444</v>
       </c>
       <c r="D168" t="n">
-        <v>3.115474392026641</v>
+        <v>6.736639907871556</v>
       </c>
     </row>
     <row r="169">
@@ -2729,10 +2729,10 @@
         <v>30</v>
       </c>
       <c r="C169" t="n">
-        <v>51.37281031279286</v>
+        <v>52.56451300004805</v>
       </c>
       <c r="D169" t="n">
-        <v>21.37281031279286</v>
+        <v>22.56451300004805</v>
       </c>
     </row>
     <row r="170">
@@ -2743,10 +2743,10 @@
         <v>50</v>
       </c>
       <c r="C170" t="n">
-        <v>41.05313738462217</v>
+        <v>44.52092269366982</v>
       </c>
       <c r="D170" t="n">
-        <v>8.946862615377832</v>
+        <v>5.479077306330176</v>
       </c>
     </row>
     <row r="171">
@@ -2757,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>1.186145971810481</v>
+        <v>2.580896112789332</v>
       </c>
       <c r="D171" t="n">
-        <v>1.186145971810481</v>
+        <v>2.580896112789332</v>
       </c>
     </row>
     <row r="172">
@@ -2771,10 +2771,10 @@
         <v>30</v>
       </c>
       <c r="C172" t="n">
-        <v>48.94703837720394</v>
+        <v>49.75292219305098</v>
       </c>
       <c r="D172" t="n">
-        <v>18.94703837720394</v>
+        <v>19.75292219305098</v>
       </c>
     </row>
     <row r="173">
@@ -2785,10 +2785,10 @@
         <v>75</v>
       </c>
       <c r="C173" t="n">
-        <v>68.16276713593061</v>
+        <v>60.7416294945364</v>
       </c>
       <c r="D173" t="n">
-        <v>6.837232864069392</v>
+        <v>14.2583705054636</v>
       </c>
     </row>
     <row r="174">
@@ -2799,10 +2799,10 @@
         <v>10</v>
       </c>
       <c r="C174" t="n">
-        <v>11.75590104001463</v>
+        <v>7.996147457259508</v>
       </c>
       <c r="D174" t="n">
-        <v>1.755901040014628</v>
+        <v>2.003852542740492</v>
       </c>
     </row>
     <row r="175">
@@ -2813,10 +2813,10 @@
         <v>75</v>
       </c>
       <c r="C175" t="n">
-        <v>33.79782477203491</v>
+        <v>42.30511228121938</v>
       </c>
       <c r="D175" t="n">
-        <v>41.20217522796509</v>
+        <v>32.69488771878062</v>
       </c>
     </row>
     <row r="176">
@@ -2827,10 +2827,10 @@
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>4.256475843657485</v>
+        <v>2.51640337592402</v>
       </c>
       <c r="D176" t="n">
-        <v>4.256475843657485</v>
+        <v>2.51640337592402</v>
       </c>
     </row>
     <row r="177">
@@ -2841,10 +2841,10 @@
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>2.634945480241545</v>
+        <v>2.301178678393129</v>
       </c>
       <c r="D177" t="n">
-        <v>2.634945480241545</v>
+        <v>2.301178678393129</v>
       </c>
     </row>
     <row r="178">
@@ -2855,10 +2855,10 @@
         <v>75</v>
       </c>
       <c r="C178" t="n">
-        <v>32.37737153839209</v>
+        <v>41.32428007645931</v>
       </c>
       <c r="D178" t="n">
-        <v>42.62262846160791</v>
+        <v>33.67571992354069</v>
       </c>
     </row>
     <row r="179">
@@ -2869,10 +2869,10 @@
         <v>62</v>
       </c>
       <c r="C179" t="n">
-        <v>47.11640238109969</v>
+        <v>46.21445311456603</v>
       </c>
       <c r="D179" t="n">
-        <v>14.88359761890031</v>
+        <v>15.78554688543397</v>
       </c>
     </row>
     <row r="180">
@@ -2883,10 +2883,10 @@
         <v>75</v>
       </c>
       <c r="C180" t="n">
-        <v>67.15216122639939</v>
+        <v>72.00578152515435</v>
       </c>
       <c r="D180" t="n">
-        <v>7.847838773600614</v>
+        <v>2.994218474845653</v>
       </c>
     </row>
     <row r="181">
@@ -2897,10 +2897,10 @@
         <v>10</v>
       </c>
       <c r="C181" t="n">
-        <v>19.72925625783129</v>
+        <v>25.54982626295859</v>
       </c>
       <c r="D181" t="n">
-        <v>9.729256257831288</v>
+        <v>15.54982626295859</v>
       </c>
     </row>
     <row r="182">
@@ -2911,10 +2911,10 @@
         <v>40</v>
       </c>
       <c r="C182" t="n">
-        <v>25.81435646560994</v>
+        <v>27.29095003628178</v>
       </c>
       <c r="D182" t="n">
-        <v>14.18564353439006</v>
+        <v>12.70904996371822</v>
       </c>
     </row>
     <row r="183">
@@ -2925,10 +2925,10 @@
         <v>75</v>
       </c>
       <c r="C183" t="n">
-        <v>67.48017179557982</v>
+        <v>70.86243541148593</v>
       </c>
       <c r="D183" t="n">
-        <v>7.519828204420179</v>
+        <v>4.137564588514067</v>
       </c>
     </row>
     <row r="184">
@@ -2939,10 +2939,10 @@
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>2.906701707919972</v>
+        <v>2.889659785370654</v>
       </c>
       <c r="D184" t="n">
-        <v>2.906701707919972</v>
+        <v>2.889659785370654</v>
       </c>
     </row>
     <row r="185">
@@ -2953,10 +2953,10 @@
         <v>40</v>
       </c>
       <c r="C185" t="n">
-        <v>47.50620410996827</v>
+        <v>49.41629481179219</v>
       </c>
       <c r="D185" t="n">
-        <v>7.506204109968266</v>
+        <v>9.416294811792191</v>
       </c>
     </row>
     <row r="186">
@@ -2967,10 +2967,10 @@
         <v>40</v>
       </c>
       <c r="C186" t="n">
-        <v>39.89065420665968</v>
+        <v>42.47630795733032</v>
       </c>
       <c r="D186" t="n">
-        <v>0.1093457933403172</v>
+        <v>2.47630795733032</v>
       </c>
     </row>
     <row r="187">
@@ -2981,10 +2981,10 @@
         <v>10</v>
       </c>
       <c r="C187" t="n">
-        <v>25.64190809235734</v>
+        <v>34.68589098159573</v>
       </c>
       <c r="D187" t="n">
-        <v>15.64190809235734</v>
+        <v>24.68589098159573</v>
       </c>
     </row>
     <row r="188">
@@ -2995,10 +2995,10 @@
         <v>75</v>
       </c>
       <c r="C188" t="n">
-        <v>25.51429617863135</v>
+        <v>39.22143729323417</v>
       </c>
       <c r="D188" t="n">
-        <v>49.48570382136865</v>
+        <v>35.77856270676583</v>
       </c>
     </row>
     <row r="189">
@@ -3009,10 +3009,10 @@
         <v>10</v>
       </c>
       <c r="C189" t="n">
-        <v>9.913691528906938</v>
+        <v>13.88172396890237</v>
       </c>
       <c r="D189" t="n">
-        <v>0.08630847109306217</v>
+        <v>3.881723968902371</v>
       </c>
     </row>
     <row r="190">
@@ -3023,10 +3023,10 @@
         <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>2.292823185439545</v>
+        <v>2.617587730076711</v>
       </c>
       <c r="D190" t="n">
-        <v>2.292823185439545</v>
+        <v>2.617587730076711</v>
       </c>
     </row>
     <row r="191">
@@ -3037,10 +3037,10 @@
         <v>10</v>
       </c>
       <c r="C191" t="n">
-        <v>28.12740198396801</v>
+        <v>22.12885859126812</v>
       </c>
       <c r="D191" t="n">
-        <v>18.12740198396801</v>
+        <v>12.12885859126812</v>
       </c>
     </row>
     <row r="192">
@@ -3051,10 +3051,10 @@
         <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>2.943929502676725</v>
+        <v>3.440166930639786</v>
       </c>
       <c r="D192" t="n">
-        <v>2.943929502676725</v>
+        <v>3.440166930639786</v>
       </c>
     </row>
     <row r="193">
@@ -3065,10 +3065,10 @@
         <v>10</v>
       </c>
       <c r="C193" t="n">
-        <v>15.79884980490356</v>
+        <v>19.52024851243393</v>
       </c>
       <c r="D193" t="n">
-        <v>5.798849804903561</v>
+        <v>9.520248512433934</v>
       </c>
     </row>
     <row r="194">
@@ -3079,10 +3079,10 @@
         <v>75</v>
       </c>
       <c r="C194" t="n">
-        <v>45.77706907700434</v>
+        <v>44.53417569403758</v>
       </c>
       <c r="D194" t="n">
-        <v>29.22293092299566</v>
+        <v>30.46582430596242</v>
       </c>
     </row>
     <row r="195">
@@ -3093,10 +3093,10 @@
         <v>40</v>
       </c>
       <c r="C195" t="n">
-        <v>34.90289740870091</v>
+        <v>35.59699970362226</v>
       </c>
       <c r="D195" t="n">
-        <v>5.097102591299091</v>
+        <v>4.403000296377741</v>
       </c>
     </row>
     <row r="196">
@@ -3107,10 +3107,10 @@
         <v>30</v>
       </c>
       <c r="C196" t="n">
-        <v>44.32692051243082</v>
+        <v>45.88225832948325</v>
       </c>
       <c r="D196" t="n">
-        <v>14.32692051243082</v>
+        <v>15.88225832948325</v>
       </c>
     </row>
     <row r="197">
@@ -3121,10 +3121,10 @@
         <v>62</v>
       </c>
       <c r="C197" t="n">
-        <v>55.42854446522241</v>
+        <v>52.01987721859159</v>
       </c>
       <c r="D197" t="n">
-        <v>6.571455534777591</v>
+        <v>9.980122781408411</v>
       </c>
     </row>
     <row r="198">
@@ -3135,10 +3135,10 @@
         <v>75</v>
       </c>
       <c r="C198" t="n">
-        <v>64.99003515263118</v>
+        <v>65.49630090695618</v>
       </c>
       <c r="D198" t="n">
-        <v>10.00996484736882</v>
+        <v>9.503699093043821</v>
       </c>
     </row>
     <row r="199">
@@ -3149,10 +3149,10 @@
         <v>50</v>
       </c>
       <c r="C199" t="n">
-        <v>41.64323561217131</v>
+        <v>35.77807012096507</v>
       </c>
       <c r="D199" t="n">
-        <v>8.35676438782869</v>
+        <v>14.22192987903493</v>
       </c>
     </row>
     <row r="200">
@@ -3163,10 +3163,10 @@
         <v>40</v>
       </c>
       <c r="C200" t="n">
-        <v>42.47446411026747</v>
+        <v>39.72312446707808</v>
       </c>
       <c r="D200" t="n">
-        <v>2.474464110267469</v>
+        <v>0.2768755329219204</v>
       </c>
     </row>
     <row r="201">
@@ -3177,10 +3177,10 @@
         <v>20</v>
       </c>
       <c r="C201" t="n">
-        <v>30.72910548406639</v>
+        <v>27.61723373090851</v>
       </c>
       <c r="D201" t="n">
-        <v>10.72910548406639</v>
+        <v>7.617233730908506</v>
       </c>
     </row>
     <row r="202">
@@ -3191,10 +3191,10 @@
         <v>30</v>
       </c>
       <c r="C202" t="n">
-        <v>41.30049634015823</v>
+        <v>46.04893773492747</v>
       </c>
       <c r="D202" t="n">
-        <v>11.30049634015823</v>
+        <v>16.04893773492747</v>
       </c>
     </row>
     <row r="203">
@@ -3205,10 +3205,10 @@
         <v>40</v>
       </c>
       <c r="C203" t="n">
-        <v>24.05827705894988</v>
+        <v>26.8081741133513</v>
       </c>
       <c r="D203" t="n">
-        <v>15.94172294105012</v>
+        <v>13.1918258866487</v>
       </c>
     </row>
     <row r="204">
@@ -3219,10 +3219,10 @@
         <v>75</v>
       </c>
       <c r="C204" t="n">
-        <v>42.03600775581414</v>
+        <v>40.70813635122131</v>
       </c>
       <c r="D204" t="n">
-        <v>32.96399224418586</v>
+        <v>34.29186364877869</v>
       </c>
     </row>
     <row r="205">
@@ -3233,10 +3233,10 @@
         <v>40</v>
       </c>
       <c r="C205" t="n">
-        <v>38.29724213537154</v>
+        <v>43.65949771577878</v>
       </c>
       <c r="D205" t="n">
-        <v>1.70275786462846</v>
+        <v>3.659497715778784</v>
       </c>
     </row>
     <row r="206">
@@ -3247,10 +3247,10 @@
         <v>50</v>
       </c>
       <c r="C206" t="n">
-        <v>41.2639122671801</v>
+        <v>41.88264253755397</v>
       </c>
       <c r="D206" t="n">
-        <v>8.736087732819897</v>
+        <v>8.11735746244603</v>
       </c>
     </row>
     <row r="207">
@@ -3261,10 +3261,10 @@
         <v>75</v>
       </c>
       <c r="C207" t="n">
-        <v>47.68900221149213</v>
+        <v>46.80609769438112</v>
       </c>
       <c r="D207" t="n">
-        <v>27.31099778850787</v>
+        <v>28.19390230561888</v>
       </c>
     </row>
     <row r="208">
@@ -3275,10 +3275,10 @@
         <v>10</v>
       </c>
       <c r="C208" t="n">
-        <v>8.930251563581407</v>
+        <v>7.012774958309709</v>
       </c>
       <c r="D208" t="n">
-        <v>1.069748436418593</v>
+        <v>2.987225041690291</v>
       </c>
     </row>
     <row r="209">
@@ -3289,10 +3289,10 @@
         <v>20</v>
       </c>
       <c r="C209" t="n">
-        <v>18.54475844418777</v>
+        <v>17.65769315258419</v>
       </c>
       <c r="D209" t="n">
-        <v>1.455241555812229</v>
+        <v>2.342306847415813</v>
       </c>
     </row>
     <row r="210">
@@ -3303,10 +3303,10 @@
         <v>10</v>
       </c>
       <c r="C210" t="n">
-        <v>7.835515883711349</v>
+        <v>5.518248470187388</v>
       </c>
       <c r="D210" t="n">
-        <v>2.164484116288651</v>
+        <v>4.481751529812612</v>
       </c>
     </row>
     <row r="211">
@@ -3317,10 +3317,10 @@
         <v>20</v>
       </c>
       <c r="C211" t="n">
-        <v>10.69668218363765</v>
+        <v>14.77521828604019</v>
       </c>
       <c r="D211" t="n">
-        <v>9.303317816362352</v>
+        <v>5.224781713959811</v>
       </c>
     </row>
     <row r="212">
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>4.119583459311833</v>
+        <v>4.669139913603653</v>
       </c>
       <c r="D212" t="n">
-        <v>4.119583459311833</v>
+        <v>4.669139913603653</v>
       </c>
     </row>
     <row r="213">
@@ -3345,10 +3345,10 @@
         <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>-0.4046801425335218</v>
+        <v>0.828977121449616</v>
       </c>
       <c r="D213" t="n">
-        <v>0.4046801425335218</v>
+        <v>0.828977121449616</v>
       </c>
     </row>
     <row r="214">
@@ -3359,10 +3359,10 @@
         <v>40</v>
       </c>
       <c r="C214" t="n">
-        <v>44.11759901684034</v>
+        <v>49.68059557056053</v>
       </c>
       <c r="D214" t="n">
-        <v>4.117599016840344</v>
+        <v>9.680595570560534</v>
       </c>
     </row>
     <row r="215">
@@ -3373,10 +3373,10 @@
         <v>30</v>
       </c>
       <c r="C215" t="n">
-        <v>51.43996528735737</v>
+        <v>56.64324728974311</v>
       </c>
       <c r="D215" t="n">
-        <v>21.43996528735737</v>
+        <v>26.64324728974311</v>
       </c>
     </row>
     <row r="216">
@@ -3387,10 +3387,10 @@
         <v>40</v>
       </c>
       <c r="C216" t="n">
-        <v>41.7158151288807</v>
+        <v>49.27368164661916</v>
       </c>
       <c r="D216" t="n">
-        <v>1.715815128880699</v>
+        <v>9.27368164661916</v>
       </c>
     </row>
     <row r="217">
@@ -3401,10 +3401,10 @@
         <v>75</v>
       </c>
       <c r="C217" t="n">
-        <v>68.74825769851384</v>
+        <v>73.53725821744278</v>
       </c>
       <c r="D217" t="n">
-        <v>6.251742301486161</v>
+        <v>1.462741782557217</v>
       </c>
     </row>
     <row r="218">
@@ -3415,10 +3415,10 @@
         <v>20</v>
       </c>
       <c r="C218" t="n">
-        <v>23.56012511870284</v>
+        <v>26.3838294628601</v>
       </c>
       <c r="D218" t="n">
-        <v>3.560125118702842</v>
+        <v>6.383829462860099</v>
       </c>
     </row>
     <row r="219">
@@ -3429,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>3.272656836749758</v>
+        <v>3.562707376173186</v>
       </c>
       <c r="D219" t="n">
-        <v>3.272656836749758</v>
+        <v>3.562707376173186</v>
       </c>
     </row>
     <row r="220">
@@ -3443,10 +3443,10 @@
         <v>75</v>
       </c>
       <c r="C220" t="n">
-        <v>99.50086616239423</v>
+        <v>97.41009111394531</v>
       </c>
       <c r="D220" t="n">
-        <v>24.50086616239423</v>
+        <v>22.41009111394531</v>
       </c>
     </row>
     <row r="221">
@@ -3457,10 +3457,10 @@
         <v>50</v>
       </c>
       <c r="C221" t="n">
-        <v>63.18097731735477</v>
+        <v>55.41026741052858</v>
       </c>
       <c r="D221" t="n">
-        <v>13.18097731735477</v>
+        <v>5.410267410528576</v>
       </c>
     </row>
     <row r="222">
@@ -3471,10 +3471,10 @@
         <v>62</v>
       </c>
       <c r="C222" t="n">
-        <v>42.47646680744182</v>
+        <v>36.99715288755677</v>
       </c>
       <c r="D222" t="n">
-        <v>19.52353319255818</v>
+        <v>25.00284711244323</v>
       </c>
     </row>
     <row r="223">
@@ -3485,10 +3485,10 @@
         <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>3.455108592747623</v>
+        <v>5.252535075040193</v>
       </c>
       <c r="D223" t="n">
-        <v>3.455108592747623</v>
+        <v>5.252535075040193</v>
       </c>
     </row>
     <row r="224">
@@ -3499,10 +3499,10 @@
         <v>10</v>
       </c>
       <c r="C224" t="n">
-        <v>27.26894290232366</v>
+        <v>23.19472304724851</v>
       </c>
       <c r="D224" t="n">
-        <v>17.26894290232366</v>
+        <v>13.19472304724851</v>
       </c>
     </row>
     <row r="225">
@@ -3513,10 +3513,10 @@
         <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>1.246708143992838</v>
+        <v>1.77691902327873</v>
       </c>
       <c r="D225" t="n">
-        <v>1.246708143992838</v>
+        <v>1.77691902327873</v>
       </c>
     </row>
     <row r="226">
@@ -3527,10 +3527,10 @@
         <v>30</v>
       </c>
       <c r="C226" t="n">
-        <v>32.88046436988257</v>
+        <v>32.80269973836612</v>
       </c>
       <c r="D226" t="n">
-        <v>2.880464369882574</v>
+        <v>2.802699738366123</v>
       </c>
     </row>
     <row r="227">
@@ -3541,10 +3541,10 @@
         <v>30</v>
       </c>
       <c r="C227" t="n">
-        <v>42.98846370093682</v>
+        <v>50.04196213368243</v>
       </c>
       <c r="D227" t="n">
-        <v>12.98846370093682</v>
+        <v>20.04196213368243</v>
       </c>
     </row>
     <row r="228">
@@ -3555,10 +3555,10 @@
         <v>10</v>
       </c>
       <c r="C228" t="n">
-        <v>2.454334184295025</v>
+        <v>1.435525558657815</v>
       </c>
       <c r="D228" t="n">
-        <v>7.545665815704975</v>
+        <v>8.564474441342185</v>
       </c>
     </row>
     <row r="229">
@@ -3569,10 +3569,10 @@
         <v>10</v>
       </c>
       <c r="C229" t="n">
-        <v>26.16341294502693</v>
+        <v>29.65322500946957</v>
       </c>
       <c r="D229" t="n">
-        <v>16.16341294502693</v>
+        <v>19.65322500946957</v>
       </c>
     </row>
     <row r="230">
@@ -3583,10 +3583,10 @@
         <v>20</v>
       </c>
       <c r="C230" t="n">
-        <v>27.27188246916917</v>
+        <v>33.78576722176766</v>
       </c>
       <c r="D230" t="n">
-        <v>7.271882469169171</v>
+        <v>13.78576722176766</v>
       </c>
     </row>
     <row r="231">
@@ -3597,10 +3597,10 @@
         <v>20</v>
       </c>
       <c r="C231" t="n">
-        <v>10.92067787913238</v>
+        <v>21.273650991994</v>
       </c>
       <c r="D231" t="n">
-        <v>9.079322120867616</v>
+        <v>1.273650991994</v>
       </c>
     </row>
     <row r="232">
@@ -3611,10 +3611,10 @@
         <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>1.914660776381364</v>
+        <v>1.671787259481001</v>
       </c>
       <c r="D232" t="n">
-        <v>1.914660776381364</v>
+        <v>1.671787259481001</v>
       </c>
     </row>
     <row r="233">
@@ -3625,10 +3625,10 @@
         <v>62</v>
       </c>
       <c r="C233" t="n">
-        <v>47.83489177895384</v>
+        <v>43.48628527824249</v>
       </c>
       <c r="D233" t="n">
-        <v>14.16510822104616</v>
+        <v>18.51371472175751</v>
       </c>
     </row>
     <row r="234">
@@ -3639,10 +3639,10 @@
         <v>50</v>
       </c>
       <c r="C234" t="n">
-        <v>51.14125540031885</v>
+        <v>51.03241550815146</v>
       </c>
       <c r="D234" t="n">
-        <v>1.141255400318855</v>
+        <v>1.032415508151459</v>
       </c>
     </row>
     <row r="235">
@@ -3653,10 +3653,10 @@
         <v>40</v>
       </c>
       <c r="C235" t="n">
-        <v>48.33155745749163</v>
+        <v>49.54254164375253</v>
       </c>
       <c r="D235" t="n">
-        <v>8.331557457491627</v>
+        <v>9.542541643752529</v>
       </c>
     </row>
     <row r="236">
@@ -3667,10 +3667,10 @@
         <v>75</v>
       </c>
       <c r="C236" t="n">
-        <v>71.35389379394071</v>
+        <v>69.24643997270587</v>
       </c>
       <c r="D236" t="n">
-        <v>3.646106206059287</v>
+        <v>5.753560027294128</v>
       </c>
     </row>
     <row r="237">
@@ -3681,10 +3681,10 @@
         <v>75</v>
       </c>
       <c r="C237" t="n">
-        <v>65.15507782209924</v>
+        <v>67.30035774920033</v>
       </c>
       <c r="D237" t="n">
-        <v>9.844922177900756</v>
+        <v>7.69964225079967</v>
       </c>
     </row>
     <row r="238">
@@ -3695,10 +3695,10 @@
         <v>20</v>
       </c>
       <c r="C238" t="n">
-        <v>14.35283549246695</v>
+        <v>29.85678236229297</v>
       </c>
       <c r="D238" t="n">
-        <v>5.647164507533049</v>
+        <v>9.856782362292968</v>
       </c>
     </row>
     <row r="239">
@@ -3709,10 +3709,10 @@
         <v>62</v>
       </c>
       <c r="C239" t="n">
-        <v>46.62583617717953</v>
+        <v>47.0568287836879</v>
       </c>
       <c r="D239" t="n">
-        <v>15.37416382282047</v>
+        <v>14.9431712163121</v>
       </c>
     </row>
     <row r="240">
@@ -3723,10 +3723,10 @@
         <v>30</v>
       </c>
       <c r="C240" t="n">
-        <v>50.23265858446038</v>
+        <v>51.69863111082402</v>
       </c>
       <c r="D240" t="n">
-        <v>20.23265858446038</v>
+        <v>21.69863111082402</v>
       </c>
     </row>
     <row r="241">
@@ -3737,10 +3737,10 @@
         <v>50</v>
       </c>
       <c r="C241" t="n">
-        <v>42.98990951799494</v>
+        <v>49.16057186181504</v>
       </c>
       <c r="D241" t="n">
-        <v>7.010090482005062</v>
+        <v>0.8394281381849638</v>
       </c>
     </row>
     <row r="242">
@@ -3751,10 +3751,10 @@
         <v>75</v>
       </c>
       <c r="C242" t="n">
-        <v>70.13072675451103</v>
+        <v>72.38956900095846</v>
       </c>
       <c r="D242" t="n">
-        <v>4.869273245488969</v>
+        <v>2.61043099904154</v>
       </c>
     </row>
     <row r="243">
@@ -3765,10 +3765,10 @@
         <v>40</v>
       </c>
       <c r="C243" t="n">
-        <v>43.80534592680828</v>
+        <v>47.15565184405371</v>
       </c>
       <c r="D243" t="n">
-        <v>3.805345926808279</v>
+        <v>7.155651844053708</v>
       </c>
     </row>
     <row r="244">
@@ -3779,10 +3779,10 @@
         <v>30</v>
       </c>
       <c r="C244" t="n">
-        <v>42.25081585779647</v>
+        <v>44.24957318367868</v>
       </c>
       <c r="D244" t="n">
-        <v>12.25081585779647</v>
+        <v>14.24957318367868</v>
       </c>
     </row>
     <row r="245">
@@ -3793,10 +3793,10 @@
         <v>75</v>
       </c>
       <c r="C245" t="n">
-        <v>70.48287665829551</v>
+        <v>65.96162920557509</v>
       </c>
       <c r="D245" t="n">
-        <v>4.51712334170449</v>
+        <v>9.038370794424907</v>
       </c>
     </row>
     <row r="246">
@@ -3807,10 +3807,10 @@
         <v>62</v>
       </c>
       <c r="C246" t="n">
-        <v>52.7410224574931</v>
+        <v>51.59616708721266</v>
       </c>
       <c r="D246" t="n">
-        <v>9.258977542506905</v>
+        <v>10.40383291278734</v>
       </c>
     </row>
     <row r="247">
@@ -3821,10 +3821,10 @@
         <v>50</v>
       </c>
       <c r="C247" t="n">
-        <v>58.59082418865879</v>
+        <v>52.97177765177747</v>
       </c>
       <c r="D247" t="n">
-        <v>8.590824188658786</v>
+        <v>2.971777651777472</v>
       </c>
     </row>
     <row r="248">
@@ -3835,10 +3835,10 @@
         <v>10</v>
       </c>
       <c r="C248" t="n">
-        <v>12.91046524027931</v>
+        <v>18.44495819362201</v>
       </c>
       <c r="D248" t="n">
-        <v>2.910465240279315</v>
+        <v>8.444958193622007</v>
       </c>
     </row>
     <row r="249">
@@ -3849,10 +3849,10 @@
         <v>10</v>
       </c>
       <c r="C249" t="n">
-        <v>26.91759795775345</v>
+        <v>24.82176070396689</v>
       </c>
       <c r="D249" t="n">
-        <v>16.91759795775345</v>
+        <v>14.82176070396689</v>
       </c>
     </row>
     <row r="250">
@@ -3863,10 +3863,10 @@
         <v>30</v>
       </c>
       <c r="C250" t="n">
-        <v>31.36573301722401</v>
+        <v>39.79340062048007</v>
       </c>
       <c r="D250" t="n">
-        <v>1.365733017224009</v>
+        <v>9.793400620480071</v>
       </c>
     </row>
     <row r="251">
@@ -3877,10 +3877,10 @@
         <v>30</v>
       </c>
       <c r="C251" t="n">
-        <v>43.76152978284674</v>
+        <v>40.32583330362898</v>
       </c>
       <c r="D251" t="n">
-        <v>13.76152978284674</v>
+        <v>10.32583330362898</v>
       </c>
     </row>
     <row r="252">
@@ -3891,10 +3891,10 @@
         <v>62</v>
       </c>
       <c r="C252" t="n">
-        <v>50.70257814778051</v>
+        <v>49.8452170051618</v>
       </c>
       <c r="D252" t="n">
-        <v>11.29742185221949</v>
+        <v>12.1547829948382</v>
       </c>
     </row>
     <row r="253">
@@ -3905,10 +3905,10 @@
         <v>20</v>
       </c>
       <c r="C253" t="n">
-        <v>37.95299622658658</v>
+        <v>34.01793209034761</v>
       </c>
       <c r="D253" t="n">
-        <v>17.95299622658658</v>
+        <v>14.01793209034761</v>
       </c>
     </row>
     <row r="254">
@@ -3919,10 +3919,10 @@
         <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>4.337543717807009</v>
+        <v>5.660322946672695</v>
       </c>
       <c r="D254" t="n">
-        <v>4.337543717807009</v>
+        <v>5.660322946672695</v>
       </c>
     </row>
     <row r="255">
@@ -3933,10 +3933,10 @@
         <v>50</v>
       </c>
       <c r="C255" t="n">
-        <v>51.79103848671429</v>
+        <v>47.58364376540687</v>
       </c>
       <c r="D255" t="n">
-        <v>1.791038486714285</v>
+        <v>2.416356234593131</v>
       </c>
     </row>
     <row r="256">
@@ -3947,10 +3947,10 @@
         <v>10</v>
       </c>
       <c r="C256" t="n">
-        <v>16.77156503258104</v>
+        <v>20.74588493451409</v>
       </c>
       <c r="D256" t="n">
-        <v>6.771565032581037</v>
+        <v>10.74588493451409</v>
       </c>
     </row>
     <row r="257">
@@ -3961,10 +3961,10 @@
         <v>20</v>
       </c>
       <c r="C257" t="n">
-        <v>24.76704059277289</v>
+        <v>21.13981802077547</v>
       </c>
       <c r="D257" t="n">
-        <v>4.767040592772886</v>
+        <v>1.139818020775472</v>
       </c>
     </row>
     <row r="258">
@@ -3975,10 +3975,10 @@
         <v>40</v>
       </c>
       <c r="C258" t="n">
-        <v>48.79721810994953</v>
+        <v>49.74062307333432</v>
       </c>
       <c r="D258" t="n">
-        <v>8.797218109949533</v>
+        <v>9.740623073334319</v>
       </c>
     </row>
     <row r="259">
@@ -3989,10 +3989,10 @@
         <v>20</v>
       </c>
       <c r="C259" t="n">
-        <v>30.74061526858627</v>
+        <v>32.85463297247979</v>
       </c>
       <c r="D259" t="n">
-        <v>10.74061526858627</v>
+        <v>12.85463297247979</v>
       </c>
     </row>
     <row r="260">
@@ -4003,10 +4003,10 @@
         <v>50</v>
       </c>
       <c r="C260" t="n">
-        <v>52.13544869997469</v>
+        <v>43.46823000239117</v>
       </c>
       <c r="D260" t="n">
-        <v>2.135448699974688</v>
+        <v>6.531769997608833</v>
       </c>
     </row>
     <row r="261">
@@ -4017,10 +4017,10 @@
         <v>75</v>
       </c>
       <c r="C261" t="n">
-        <v>40.86095730276919</v>
+        <v>38.29557138874355</v>
       </c>
       <c r="D261" t="n">
-        <v>34.13904269723081</v>
+        <v>36.70442861125645</v>
       </c>
     </row>
     <row r="262">
@@ -4031,10 +4031,10 @@
         <v>10</v>
       </c>
       <c r="C262" t="n">
-        <v>17.18363902740484</v>
+        <v>16.94685202905236</v>
       </c>
       <c r="D262" t="n">
-        <v>7.183639027404837</v>
+        <v>6.946852029052359</v>
       </c>
     </row>
     <row r="263">
@@ -4045,10 +4045,10 @@
         <v>75</v>
       </c>
       <c r="C263" t="n">
-        <v>62.68163713212729</v>
+        <v>68.95775525733364</v>
       </c>
       <c r="D263" t="n">
-        <v>12.31836286787271</v>
+        <v>6.042244742666355</v>
       </c>
     </row>
     <row r="264">
@@ -4059,10 +4059,10 @@
         <v>62</v>
       </c>
       <c r="C264" t="n">
-        <v>60.777425316288</v>
+        <v>55.68002367657976</v>
       </c>
       <c r="D264" t="n">
-        <v>1.222574683711997</v>
+        <v>6.319976323420242</v>
       </c>
     </row>
     <row r="265">
@@ -4073,10 +4073,10 @@
         <v>0</v>
       </c>
       <c r="C265" t="n">
-        <v>3.803215531567938</v>
+        <v>3.971012199987553</v>
       </c>
       <c r="D265" t="n">
-        <v>3.803215531567938</v>
+        <v>3.971012199987553</v>
       </c>
     </row>
     <row r="266">
@@ -4087,10 +4087,10 @@
         <v>62</v>
       </c>
       <c r="C266" t="n">
-        <v>63.25241951193023</v>
+        <v>57.74492557201995</v>
       </c>
       <c r="D266" t="n">
-        <v>1.252419511930235</v>
+        <v>4.255074427980048</v>
       </c>
     </row>
     <row r="267">
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="C267" t="n">
-        <v>1.796647856678653</v>
+        <v>3.334105659205204</v>
       </c>
       <c r="D267" t="n">
-        <v>1.796647856678653</v>
+        <v>3.334105659205204</v>
       </c>
     </row>
     <row r="268">
@@ -4115,10 +4115,10 @@
         <v>62</v>
       </c>
       <c r="C268" t="n">
-        <v>53.51087386863201</v>
+        <v>44.14885939336833</v>
       </c>
       <c r="D268" t="n">
-        <v>8.489126131367989</v>
+        <v>17.85114060663167</v>
       </c>
     </row>
     <row r="269">
@@ -4129,10 +4129,10 @@
         <v>62</v>
       </c>
       <c r="C269" t="n">
-        <v>58.67500723007948</v>
+        <v>54.12421681115693</v>
       </c>
       <c r="D269" t="n">
-        <v>3.32499276992052</v>
+        <v>7.875783188843066</v>
       </c>
     </row>
     <row r="270">
@@ -4143,10 +4143,10 @@
         <v>20</v>
       </c>
       <c r="C270" t="n">
-        <v>9.631634979151073</v>
+        <v>20.41742373555487</v>
       </c>
       <c r="D270" t="n">
-        <v>10.36836502084893</v>
+        <v>0.4174237355548733</v>
       </c>
     </row>
     <row r="271">
@@ -4157,10 +4157,10 @@
         <v>10</v>
       </c>
       <c r="C271" t="n">
-        <v>7.927271642493324</v>
+        <v>6.710234263383498</v>
       </c>
       <c r="D271" t="n">
-        <v>2.072728357506676</v>
+        <v>3.289765736616502</v>
       </c>
     </row>
     <row r="272">
@@ -4171,10 +4171,10 @@
         <v>30</v>
       </c>
       <c r="C272" t="n">
-        <v>40.20394062284234</v>
+        <v>34.384576747662</v>
       </c>
       <c r="D272" t="n">
-        <v>10.20394062284234</v>
+        <v>4.384576747661995</v>
       </c>
     </row>
     <row r="273">
@@ -4185,10 +4185,10 @@
         <v>50</v>
       </c>
       <c r="C273" t="n">
-        <v>62.28227862686947</v>
+        <v>54.50400062526844</v>
       </c>
       <c r="D273" t="n">
-        <v>12.28227862686947</v>
+        <v>4.504000625268439</v>
       </c>
     </row>
     <row r="274">
@@ -4199,10 +4199,10 @@
         <v>10</v>
       </c>
       <c r="C274" t="n">
-        <v>16.08089559816684</v>
+        <v>14.48619455947528</v>
       </c>
       <c r="D274" t="n">
-        <v>6.08089559816684</v>
+        <v>4.48619455947528</v>
       </c>
     </row>
     <row r="275">
@@ -4213,10 +4213,10 @@
         <v>50</v>
       </c>
       <c r="C275" t="n">
-        <v>52.30235093557859</v>
+        <v>56.43108824851149</v>
       </c>
       <c r="D275" t="n">
-        <v>2.302350935578588</v>
+        <v>6.431088248511493</v>
       </c>
     </row>
     <row r="276">
@@ -4227,10 +4227,10 @@
         <v>20</v>
       </c>
       <c r="C276" t="n">
-        <v>19.31064240703821</v>
+        <v>21.26278481796821</v>
       </c>
       <c r="D276" t="n">
-        <v>0.689357592961791</v>
+        <v>1.262784817968207</v>
       </c>
     </row>
     <row r="277">
@@ -4241,10 +4241,10 @@
         <v>10</v>
       </c>
       <c r="C277" t="n">
-        <v>8.735798686453307</v>
+        <v>6.431569035373943</v>
       </c>
       <c r="D277" t="n">
-        <v>1.264201313546693</v>
+        <v>3.568430964626057</v>
       </c>
     </row>
     <row r="278">
@@ -4255,10 +4255,10 @@
         <v>10</v>
       </c>
       <c r="C278" t="n">
-        <v>-3.629289513080508</v>
+        <v>-1.721288262871965</v>
       </c>
       <c r="D278" t="n">
-        <v>13.62928951308051</v>
+        <v>11.72128826287197</v>
       </c>
     </row>
     <row r="279">
@@ -4269,10 +4269,10 @@
         <v>10</v>
       </c>
       <c r="C279" t="n">
-        <v>17.28153711662376</v>
+        <v>25.7307324407151</v>
       </c>
       <c r="D279" t="n">
-        <v>7.281537116623756</v>
+        <v>15.7307324407151</v>
       </c>
     </row>
     <row r="280">
@@ -4283,10 +4283,10 @@
         <v>75</v>
       </c>
       <c r="C280" t="n">
-        <v>49.83770830949088</v>
+        <v>49.4481710037207</v>
       </c>
       <c r="D280" t="n">
-        <v>25.16229169050912</v>
+        <v>25.5518289962793</v>
       </c>
     </row>
     <row r="281">
@@ -4297,10 +4297,10 @@
         <v>40</v>
       </c>
       <c r="C281" t="n">
-        <v>39.05126260523681</v>
+        <v>46.02539713765822</v>
       </c>
       <c r="D281" t="n">
-        <v>0.9487373947631923</v>
+        <v>6.025397137658217</v>
       </c>
     </row>
     <row r="282">
@@ -4311,10 +4311,10 @@
         <v>20</v>
       </c>
       <c r="C282" t="n">
-        <v>19.27671648287127</v>
+        <v>22.31344472619661</v>
       </c>
       <c r="D282" t="n">
-        <v>0.7232835171287348</v>
+        <v>2.313444726196607</v>
       </c>
     </row>
     <row r="283">
@@ -4325,10 +4325,10 @@
         <v>40</v>
       </c>
       <c r="C283" t="n">
-        <v>50.003487264696</v>
+        <v>51.29734797116259</v>
       </c>
       <c r="D283" t="n">
-        <v>10.003487264696</v>
+        <v>11.29734797116259</v>
       </c>
     </row>
     <row r="284">
@@ -4339,10 +4339,10 @@
         <v>40</v>
       </c>
       <c r="C284" t="n">
-        <v>43.12113724676721</v>
+        <v>49.9661107355328</v>
       </c>
       <c r="D284" t="n">
-        <v>3.121137246767212</v>
+        <v>9.966110735532801</v>
       </c>
     </row>
     <row r="285">
@@ -4353,10 +4353,10 @@
         <v>50</v>
       </c>
       <c r="C285" t="n">
-        <v>52.98923844279513</v>
+        <v>60.20993615324239</v>
       </c>
       <c r="D285" t="n">
-        <v>2.989238442795134</v>
+        <v>10.20993615324239</v>
       </c>
     </row>
     <row r="286">
@@ -4367,10 +4367,10 @@
         <v>0</v>
       </c>
       <c r="C286" t="n">
-        <v>3.507578971061629</v>
+        <v>3.724352900290801</v>
       </c>
       <c r="D286" t="n">
-        <v>3.507578971061629</v>
+        <v>3.724352900290801</v>
       </c>
     </row>
     <row r="287">
@@ -4381,10 +4381,10 @@
         <v>0</v>
       </c>
       <c r="C287" t="n">
-        <v>4.103166544189527</v>
+        <v>3.577339698196247</v>
       </c>
       <c r="D287" t="n">
-        <v>4.103166544189527</v>
+        <v>3.577339698196247</v>
       </c>
     </row>
     <row r="288">
@@ -4395,10 +4395,10 @@
         <v>40</v>
       </c>
       <c r="C288" t="n">
-        <v>49.77600631269454</v>
+        <v>48.53285931706383</v>
       </c>
       <c r="D288" t="n">
-        <v>9.776006312694541</v>
+        <v>8.532859317063831</v>
       </c>
     </row>
     <row r="289">
@@ -4409,10 +4409,10 @@
         <v>10</v>
       </c>
       <c r="C289" t="n">
-        <v>15.95889523542537</v>
+        <v>14.96169274625115</v>
       </c>
       <c r="D289" t="n">
-        <v>5.958895235425373</v>
+        <v>4.961692746251154</v>
       </c>
     </row>
     <row r="290">
@@ -4423,10 +4423,10 @@
         <v>75</v>
       </c>
       <c r="C290" t="n">
-        <v>89.68804563478325</v>
+        <v>89.59516100509359</v>
       </c>
       <c r="D290" t="n">
-        <v>14.68804563478325</v>
+        <v>14.59516100509359</v>
       </c>
     </row>
     <row r="291">
@@ -4437,10 +4437,10 @@
         <v>30</v>
       </c>
       <c r="C291" t="n">
-        <v>31.88703284960905</v>
+        <v>45.5624434748493</v>
       </c>
       <c r="D291" t="n">
-        <v>1.887032849609049</v>
+        <v>15.5624434748493</v>
       </c>
     </row>
     <row r="292">
@@ -4451,10 +4451,10 @@
         <v>75</v>
       </c>
       <c r="C292" t="n">
-        <v>68.89299362222613</v>
+        <v>63.36548525369125</v>
       </c>
       <c r="D292" t="n">
-        <v>6.107006377773871</v>
+        <v>11.63451474630875</v>
       </c>
     </row>
     <row r="293">
@@ -4465,10 +4465,10 @@
         <v>62</v>
       </c>
       <c r="C293" t="n">
-        <v>67.68461191549704</v>
+        <v>61.82380768740433</v>
       </c>
       <c r="D293" t="n">
-        <v>5.684611915497044</v>
+        <v>0.1761923125956741</v>
       </c>
     </row>
     <row r="294">
@@ -4479,10 +4479,10 @@
         <v>50</v>
       </c>
       <c r="C294" t="n">
-        <v>53.61555251773022</v>
+        <v>48.53048941696111</v>
       </c>
       <c r="D294" t="n">
-        <v>3.615552517730222</v>
+        <v>1.46951058303889</v>
       </c>
     </row>
     <row r="295">
@@ -4493,10 +4493,10 @@
         <v>40</v>
       </c>
       <c r="C295" t="n">
-        <v>25.24199548078755</v>
+        <v>20.97363339144941</v>
       </c>
       <c r="D295" t="n">
-        <v>14.75800451921245</v>
+        <v>19.02636660855059</v>
       </c>
     </row>
     <row r="296">
@@ -4507,10 +4507,10 @@
         <v>10</v>
       </c>
       <c r="C296" t="n">
-        <v>26.18131927204539</v>
+        <v>21.73282440535655</v>
       </c>
       <c r="D296" t="n">
-        <v>16.18131927204539</v>
+        <v>11.73282440535655</v>
       </c>
     </row>
     <row r="297">
@@ -4521,10 +4521,10 @@
         <v>30</v>
       </c>
       <c r="C297" t="n">
-        <v>18.32688867072851</v>
+        <v>31.37122734652927</v>
       </c>
       <c r="D297" t="n">
-        <v>11.67311132927149</v>
+        <v>1.371227346529274</v>
       </c>
     </row>
     <row r="298">
@@ -4535,10 +4535,10 @@
         <v>0</v>
       </c>
       <c r="C298" t="n">
-        <v>3.647425163212597</v>
+        <v>4.924149757931055</v>
       </c>
       <c r="D298" t="n">
-        <v>3.647425163212597</v>
+        <v>4.924149757931055</v>
       </c>
     </row>
     <row r="299">
@@ -4549,10 +4549,10 @@
         <v>0</v>
       </c>
       <c r="C299" t="n">
-        <v>5.856921976505388</v>
+        <v>6.567082986910492</v>
       </c>
       <c r="D299" t="n">
-        <v>5.856921976505388</v>
+        <v>6.567082986910492</v>
       </c>
     </row>
     <row r="300">
@@ -4563,10 +4563,10 @@
         <v>50</v>
       </c>
       <c r="C300" t="n">
-        <v>43.49114598958745</v>
+        <v>46.16982021178435</v>
       </c>
       <c r="D300" t="n">
-        <v>6.508854010412549</v>
+        <v>3.830179788215652</v>
       </c>
     </row>
     <row r="301">
@@ -4577,10 +4577,10 @@
         <v>20</v>
       </c>
       <c r="C301" t="n">
-        <v>35.58184431399631</v>
+        <v>29.02909214366588</v>
       </c>
       <c r="D301" t="n">
-        <v>15.58184431399631</v>
+        <v>9.029092143665881</v>
       </c>
     </row>
     <row r="302">
@@ -4591,10 +4591,10 @@
         <v>50</v>
       </c>
       <c r="C302" t="n">
-        <v>33.98673439845106</v>
+        <v>51.70146612640636</v>
       </c>
       <c r="D302" t="n">
-        <v>16.01326560154894</v>
+        <v>1.701466126406359</v>
       </c>
     </row>
     <row r="303">
@@ -4605,10 +4605,10 @@
         <v>30</v>
       </c>
       <c r="C303" t="n">
-        <v>42.53673386005121</v>
+        <v>38.65607548315746</v>
       </c>
       <c r="D303" t="n">
-        <v>12.53673386005121</v>
+        <v>8.656075483157458</v>
       </c>
     </row>
     <row r="304">
@@ -4619,10 +4619,10 @@
         <v>30</v>
       </c>
       <c r="C304" t="n">
-        <v>41.28277407271619</v>
+        <v>43.35286945036721</v>
       </c>
       <c r="D304" t="n">
-        <v>11.28277407271619</v>
+        <v>13.35286945036721</v>
       </c>
     </row>
     <row r="305">
@@ -4633,10 +4633,10 @@
         <v>30</v>
       </c>
       <c r="C305" t="n">
-        <v>31.69837683458599</v>
+        <v>36.60831776145567</v>
       </c>
       <c r="D305" t="n">
-        <v>1.698376834585993</v>
+        <v>6.608317761455673</v>
       </c>
     </row>
     <row r="306">
@@ -4647,10 +4647,10 @@
         <v>62</v>
       </c>
       <c r="C306" t="n">
-        <v>61.0220909203126</v>
+        <v>62.7812755566036</v>
       </c>
       <c r="D306" t="n">
-        <v>0.9779090796874002</v>
+        <v>0.7812755566036031</v>
       </c>
     </row>
     <row r="307">
@@ -4661,10 +4661,10 @@
         <v>75</v>
       </c>
       <c r="C307" t="n">
-        <v>85.22620279489308</v>
+        <v>83.47294403800962</v>
       </c>
       <c r="D307" t="n">
-        <v>10.22620279489308</v>
+        <v>8.472944038009615</v>
       </c>
     </row>
     <row r="308">
@@ -4675,10 +4675,10 @@
         <v>75</v>
       </c>
       <c r="C308" t="n">
-        <v>46.47144476349212</v>
+        <v>58.93892383793271</v>
       </c>
       <c r="D308" t="n">
-        <v>28.52855523650788</v>
+        <v>16.06107616206729</v>
       </c>
     </row>
     <row r="309">
@@ -4689,10 +4689,10 @@
         <v>0</v>
       </c>
       <c r="C309" t="n">
-        <v>3.536949667763634</v>
+        <v>4.871637620004832</v>
       </c>
       <c r="D309" t="n">
-        <v>3.536949667763634</v>
+        <v>4.871637620004832</v>
       </c>
     </row>
     <row r="310">
@@ -4703,10 +4703,10 @@
         <v>40</v>
       </c>
       <c r="C310" t="n">
-        <v>46.1993900102632</v>
+        <v>47.99718958575247</v>
       </c>
       <c r="D310" t="n">
-        <v>6.199390010263201</v>
+        <v>7.997189585752466</v>
       </c>
     </row>
     <row r="311">
@@ -4717,10 +4717,10 @@
         <v>10</v>
       </c>
       <c r="C311" t="n">
-        <v>17.12492298072764</v>
+        <v>22.41189865536462</v>
       </c>
       <c r="D311" t="n">
-        <v>7.124922980727639</v>
+        <v>12.41189865536462</v>
       </c>
     </row>
     <row r="312">
@@ -4731,10 +4731,10 @@
         <v>30</v>
       </c>
       <c r="C312" t="n">
-        <v>39.07752956182532</v>
+        <v>31.55129278923798</v>
       </c>
       <c r="D312" t="n">
-        <v>9.077529561825322</v>
+        <v>1.55129278923798</v>
       </c>
     </row>
     <row r="313">
@@ -4745,10 +4745,10 @@
         <v>62</v>
       </c>
       <c r="C313" t="n">
-        <v>48.12058876426543</v>
+        <v>48.84784440682387</v>
       </c>
       <c r="D313" t="n">
-        <v>13.87941123573457</v>
+        <v>13.15215559317613</v>
       </c>
     </row>
     <row r="314">
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="C314" t="n">
-        <v>1.8785384517974</v>
+        <v>2.731118727348874</v>
       </c>
       <c r="D314" t="n">
-        <v>1.8785384517974</v>
+        <v>2.731118727348874</v>
       </c>
     </row>
     <row r="315">
@@ -4773,10 +4773,10 @@
         <v>75</v>
       </c>
       <c r="C315" t="n">
-        <v>57.58167748975886</v>
+        <v>53.77605085489632</v>
       </c>
       <c r="D315" t="n">
-        <v>17.41832251024114</v>
+        <v>21.22394914510368</v>
       </c>
     </row>
     <row r="316">
@@ -4787,10 +4787,10 @@
         <v>0</v>
       </c>
       <c r="C316" t="n">
-        <v>0.7382301017318795</v>
+        <v>0.6148161097362426</v>
       </c>
       <c r="D316" t="n">
-        <v>0.7382301017318795</v>
+        <v>0.6148161097362426</v>
       </c>
     </row>
     <row r="317">
@@ -4801,10 +4801,10 @@
         <v>50</v>
       </c>
       <c r="C317" t="n">
-        <v>51.19483981478865</v>
+        <v>44.71579258530194</v>
       </c>
       <c r="D317" t="n">
-        <v>1.194839814788651</v>
+        <v>5.284207414698059</v>
       </c>
     </row>
     <row r="318">
@@ -4815,10 +4815,10 @@
         <v>40</v>
       </c>
       <c r="C318" t="n">
-        <v>50.05063275063495</v>
+        <v>47.17430679060504</v>
       </c>
       <c r="D318" t="n">
-        <v>10.05063275063495</v>
+        <v>7.174306790605037</v>
       </c>
     </row>
     <row r="319">
@@ -4829,10 +4829,10 @@
         <v>62</v>
       </c>
       <c r="C319" t="n">
-        <v>52.09203351352524</v>
+        <v>45.05703033479614</v>
       </c>
       <c r="D319" t="n">
-        <v>9.907966486474763</v>
+        <v>16.94296966520386</v>
       </c>
     </row>
     <row r="320">
@@ -4843,10 +4843,10 @@
         <v>50</v>
       </c>
       <c r="C320" t="n">
-        <v>47.27075040731908</v>
+        <v>46.72469438561437</v>
       </c>
       <c r="D320" t="n">
-        <v>2.729249592680922</v>
+        <v>3.27530561438563</v>
       </c>
     </row>
     <row r="321">
@@ -4857,10 +4857,10 @@
         <v>40</v>
       </c>
       <c r="C321" t="n">
-        <v>39.22033004801236</v>
+        <v>48.10824219623571</v>
       </c>
       <c r="D321" t="n">
-        <v>0.7796699519876356</v>
+        <v>8.108242196235707</v>
       </c>
     </row>
     <row r="322">
@@ -4871,10 +4871,10 @@
         <v>62</v>
       </c>
       <c r="C322" t="n">
-        <v>60.55035720095362</v>
+        <v>52.58665838452863</v>
       </c>
       <c r="D322" t="n">
-        <v>1.44964279904638</v>
+        <v>9.413341615471367</v>
       </c>
     </row>
     <row r="323">
@@ -4885,10 +4885,10 @@
         <v>62</v>
       </c>
       <c r="C323" t="n">
-        <v>42.02758458725725</v>
+        <v>38.23997315490355</v>
       </c>
       <c r="D323" t="n">
-        <v>19.97241541274275</v>
+        <v>23.76002684509645</v>
       </c>
     </row>
     <row r="324">
@@ -4899,10 +4899,10 @@
         <v>40</v>
       </c>
       <c r="C324" t="n">
-        <v>44.88239471346898</v>
+        <v>49.34246717211132</v>
       </c>
       <c r="D324" t="n">
-        <v>4.882394713468976</v>
+        <v>9.34246717211132</v>
       </c>
     </row>
     <row r="325">
@@ -4913,10 +4913,10 @@
         <v>75</v>
       </c>
       <c r="C325" t="n">
-        <v>72.54441961187213</v>
+        <v>66.0983463942208</v>
       </c>
       <c r="D325" t="n">
-        <v>2.455580388127871</v>
+        <v>8.901653605779202</v>
       </c>
     </row>
     <row r="326">
@@ -4927,10 +4927,10 @@
         <v>40</v>
       </c>
       <c r="C326" t="n">
-        <v>33.28617702252737</v>
+        <v>46.41723221305529</v>
       </c>
       <c r="D326" t="n">
-        <v>6.713822977472631</v>
+        <v>6.417232213055286</v>
       </c>
     </row>
     <row r="327">
@@ -4941,10 +4941,10 @@
         <v>75</v>
       </c>
       <c r="C327" t="n">
-        <v>82.43051375460566</v>
+        <v>77.05793937782622</v>
       </c>
       <c r="D327" t="n">
-        <v>7.430513754605656</v>
+        <v>2.057939377826216</v>
       </c>
     </row>
     <row r="328">
@@ -4955,10 +4955,10 @@
         <v>30</v>
       </c>
       <c r="C328" t="n">
-        <v>37.64925732066392</v>
+        <v>42.06630967564097</v>
       </c>
       <c r="D328" t="n">
-        <v>7.649257320663921</v>
+        <v>12.06630967564097</v>
       </c>
     </row>
     <row r="329">
@@ -4969,10 +4969,10 @@
         <v>10</v>
       </c>
       <c r="C329" t="n">
-        <v>9.408695178182606</v>
+        <v>7.422821420621128</v>
       </c>
       <c r="D329" t="n">
-        <v>0.5913048218173937</v>
+        <v>2.577178579378872</v>
       </c>
     </row>
     <row r="330">
@@ -4983,10 +4983,10 @@
         <v>30</v>
       </c>
       <c r="C330" t="n">
-        <v>33.28755098189567</v>
+        <v>36.78398302107929</v>
       </c>
       <c r="D330" t="n">
-        <v>3.28755098189567</v>
+        <v>6.783983021079287</v>
       </c>
     </row>
     <row r="331">
@@ -4997,10 +4997,10 @@
         <v>10</v>
       </c>
       <c r="C331" t="n">
-        <v>-0.2949985768775747</v>
+        <v>-0.6735551792354464</v>
       </c>
       <c r="D331" t="n">
-        <v>10.29499857687757</v>
+        <v>10.67355517923545</v>
       </c>
     </row>
     <row r="332">
@@ -5011,10 +5011,10 @@
         <v>0</v>
       </c>
       <c r="C332" t="n">
-        <v>2.43060693550911</v>
+        <v>4.102606370036359</v>
       </c>
       <c r="D332" t="n">
-        <v>2.43060693550911</v>
+        <v>4.102606370036359</v>
       </c>
     </row>
     <row r="333">
@@ -5025,10 +5025,10 @@
         <v>50</v>
       </c>
       <c r="C333" t="n">
-        <v>55.46494869053303</v>
+        <v>49.08785442742018</v>
       </c>
       <c r="D333" t="n">
-        <v>5.464948690533035</v>
+        <v>0.9121455725798171</v>
       </c>
     </row>
     <row r="334">
@@ -5039,10 +5039,10 @@
         <v>10</v>
       </c>
       <c r="C334" t="n">
-        <v>19.032161090423</v>
+        <v>19.10565816904971</v>
       </c>
       <c r="D334" t="n">
-        <v>9.032161090423003</v>
+        <v>9.105658169049708</v>
       </c>
     </row>
     <row r="335">
@@ -5053,10 +5053,10 @@
         <v>50</v>
       </c>
       <c r="C335" t="n">
-        <v>47.42136468267831</v>
+        <v>45.09718726492829</v>
       </c>
       <c r="D335" t="n">
-        <v>2.578635317321691</v>
+        <v>4.902812735071713</v>
       </c>
     </row>
     <row r="336">
@@ -5067,10 +5067,10 @@
         <v>62</v>
       </c>
       <c r="C336" t="n">
-        <v>55.67675143272059</v>
+        <v>48.55020538198781</v>
       </c>
       <c r="D336" t="n">
-        <v>6.323248567279407</v>
+        <v>13.44979461801219</v>
       </c>
     </row>
     <row r="337">
@@ -5081,10 +5081,10 @@
         <v>30</v>
       </c>
       <c r="C337" t="n">
-        <v>30.63065498308855</v>
+        <v>35.34202829447869</v>
       </c>
       <c r="D337" t="n">
-        <v>0.6306549830885544</v>
+        <v>5.342028294478688</v>
       </c>
     </row>
     <row r="338">
@@ -5095,10 +5095,10 @@
         <v>30</v>
       </c>
       <c r="C338" t="n">
-        <v>39.2611762337599</v>
+        <v>38.11369339953593</v>
       </c>
       <c r="D338" t="n">
-        <v>9.261176233759898</v>
+        <v>8.113693399535933</v>
       </c>
     </row>
     <row r="339">
@@ -5109,10 +5109,10 @@
         <v>0</v>
       </c>
       <c r="C339" t="n">
-        <v>0.7796278930189906</v>
+        <v>1.898916116367585</v>
       </c>
       <c r="D339" t="n">
-        <v>0.7796278930189906</v>
+        <v>1.898916116367585</v>
       </c>
     </row>
     <row r="340">
@@ -5123,10 +5123,10 @@
         <v>50</v>
       </c>
       <c r="C340" t="n">
-        <v>57.24397284831203</v>
+        <v>63.55708902274975</v>
       </c>
       <c r="D340" t="n">
-        <v>7.243972848312026</v>
+        <v>13.55708902274975</v>
       </c>
     </row>
     <row r="341">
@@ -5137,10 +5137,10 @@
         <v>10</v>
       </c>
       <c r="C341" t="n">
-        <v>12.38649669699774</v>
+        <v>10.56962859935246</v>
       </c>
       <c r="D341" t="n">
-        <v>2.386496696997739</v>
+        <v>0.5696285993524555</v>
       </c>
     </row>
     <row r="342">
@@ -5151,10 +5151,10 @@
         <v>75</v>
       </c>
       <c r="C342" t="n">
-        <v>57.02929878285656</v>
+        <v>62.93488557733513</v>
       </c>
       <c r="D342" t="n">
-        <v>17.97070121714344</v>
+        <v>12.06511442266487</v>
       </c>
     </row>
     <row r="343">
@@ -5165,10 +5165,10 @@
         <v>10</v>
       </c>
       <c r="C343" t="n">
-        <v>6.871726047054217</v>
+        <v>7.129453499671454</v>
       </c>
       <c r="D343" t="n">
-        <v>3.128273952945783</v>
+        <v>2.870546500328546</v>
       </c>
     </row>
     <row r="344">
@@ -5179,10 +5179,10 @@
         <v>50</v>
       </c>
       <c r="C344" t="n">
-        <v>59.27485159497314</v>
+        <v>54.99359964305697</v>
       </c>
       <c r="D344" t="n">
-        <v>9.274851594973136</v>
+        <v>4.993599643056974</v>
       </c>
     </row>
     <row r="345">
@@ -5193,10 +5193,10 @@
         <v>20</v>
       </c>
       <c r="C345" t="n">
-        <v>14.15919398830761</v>
+        <v>20.16268353517426</v>
       </c>
       <c r="D345" t="n">
-        <v>5.840806011692393</v>
+        <v>0.1626835351742599</v>
       </c>
     </row>
     <row r="346">
@@ -5207,10 +5207,10 @@
         <v>50</v>
       </c>
       <c r="C346" t="n">
-        <v>56.17238268135476</v>
+        <v>52.81231220361</v>
       </c>
       <c r="D346" t="n">
-        <v>6.172382681354762</v>
+        <v>2.812312203609999</v>
       </c>
     </row>
     <row r="347">
@@ -5221,10 +5221,10 @@
         <v>10</v>
       </c>
       <c r="C347" t="n">
-        <v>17.00472895899841</v>
+        <v>17.66543600160155</v>
       </c>
       <c r="D347" t="n">
-        <v>7.004728958998413</v>
+        <v>7.665436001601549</v>
       </c>
     </row>
     <row r="348">
@@ -5235,10 +5235,10 @@
         <v>20</v>
       </c>
       <c r="C348" t="n">
-        <v>24.82373423018716</v>
+        <v>20.77317847300682</v>
       </c>
       <c r="D348" t="n">
-        <v>4.823734230187164</v>
+        <v>0.7731784730068227</v>
       </c>
     </row>
     <row r="349">
@@ -5249,10 +5249,10 @@
         <v>50</v>
       </c>
       <c r="C349" t="n">
-        <v>53.52941253907092</v>
+        <v>58.34477065655302</v>
       </c>
       <c r="D349" t="n">
-        <v>3.529412539070918</v>
+        <v>8.344770656553017</v>
       </c>
     </row>
     <row r="350">
@@ -5263,10 +5263,10 @@
         <v>20</v>
       </c>
       <c r="C350" t="n">
-        <v>19.71958499553671</v>
+        <v>22.95228907870982</v>
       </c>
       <c r="D350" t="n">
-        <v>0.2804150044632934</v>
+        <v>2.952289078709821</v>
       </c>
     </row>
     <row r="351">
@@ -5277,10 +5277,10 @@
         <v>30</v>
       </c>
       <c r="C351" t="n">
-        <v>36.00149121412746</v>
+        <v>33.27903575843202</v>
       </c>
       <c r="D351" t="n">
-        <v>6.001491214127455</v>
+        <v>3.279035758432016</v>
       </c>
     </row>
     <row r="352">
@@ -5291,10 +5291,10 @@
         <v>75</v>
       </c>
       <c r="C352" t="n">
-        <v>66.11665388541917</v>
+        <v>68.53597752217694</v>
       </c>
       <c r="D352" t="n">
-        <v>8.883346114580831</v>
+        <v>6.464022477823065</v>
       </c>
     </row>
     <row r="353">
@@ -5305,10 +5305,10 @@
         <v>62</v>
       </c>
       <c r="C353" t="n">
-        <v>62.68787027066455</v>
+        <v>52.7752515671329</v>
       </c>
       <c r="D353" t="n">
-        <v>0.687870270664547</v>
+        <v>9.224748432867102</v>
       </c>
     </row>
     <row r="354">
@@ -5319,10 +5319,10 @@
         <v>10</v>
       </c>
       <c r="C354" t="n">
-        <v>3.157848557606968</v>
+        <v>3.292429658484549</v>
       </c>
       <c r="D354" t="n">
-        <v>6.842151442393032</v>
+        <v>6.707570341515451</v>
       </c>
     </row>
     <row r="355">
@@ -5333,10 +5333,10 @@
         <v>10</v>
       </c>
       <c r="C355" t="n">
-        <v>21.99975120684809</v>
+        <v>25.25722571562997</v>
       </c>
       <c r="D355" t="n">
-        <v>11.99975120684809</v>
+        <v>15.25722571562997</v>
       </c>
     </row>
     <row r="356">
@@ -5347,10 +5347,10 @@
         <v>20</v>
       </c>
       <c r="C356" t="n">
-        <v>25.96352168353915</v>
+        <v>16.26638155897135</v>
       </c>
       <c r="D356" t="n">
-        <v>5.963521683539149</v>
+        <v>3.733618441028646</v>
       </c>
     </row>
     <row r="357">
@@ -5361,10 +5361,10 @@
         <v>30</v>
       </c>
       <c r="C357" t="n">
-        <v>41.37050461665712</v>
+        <v>47.26587406118945</v>
       </c>
       <c r="D357" t="n">
-        <v>11.37050461665712</v>
+        <v>17.26587406118945</v>
       </c>
     </row>
     <row r="358">
@@ -5375,10 +5375,10 @@
         <v>10</v>
       </c>
       <c r="C358" t="n">
-        <v>18.91034411029046</v>
+        <v>22.95621449068429</v>
       </c>
       <c r="D358" t="n">
-        <v>8.91034411029046</v>
+        <v>12.95621449068429</v>
       </c>
     </row>
     <row r="359">
@@ -5389,10 +5389,10 @@
         <v>30</v>
       </c>
       <c r="C359" t="n">
-        <v>44.26295229105533</v>
+        <v>42.07040692109845</v>
       </c>
       <c r="D359" t="n">
-        <v>14.26295229105533</v>
+        <v>12.07040692109845</v>
       </c>
     </row>
     <row r="360">
@@ -5403,10 +5403,10 @@
         <v>30</v>
       </c>
       <c r="C360" t="n">
-        <v>38.63410155300951</v>
+        <v>44.37516826502281</v>
       </c>
       <c r="D360" t="n">
-        <v>8.634101553009515</v>
+        <v>14.37516826502281</v>
       </c>
     </row>
     <row r="361">
@@ -5417,10 +5417,10 @@
         <v>20</v>
       </c>
       <c r="C361" t="n">
-        <v>22.376638749066</v>
+        <v>23.67018172328117</v>
       </c>
       <c r="D361" t="n">
-        <v>2.376638749066004</v>
+        <v>3.670181723281168</v>
       </c>
     </row>
     <row r="362">
@@ -5431,10 +5431,10 @@
         <v>20</v>
       </c>
       <c r="C362" t="n">
-        <v>28.41664738081608</v>
+        <v>27.81582980792272</v>
       </c>
       <c r="D362" t="n">
-        <v>8.41664738081608</v>
+        <v>7.815829807922722</v>
       </c>
     </row>
     <row r="363">
@@ -5445,10 +5445,10 @@
         <v>30</v>
       </c>
       <c r="C363" t="n">
-        <v>21.56751890215471</v>
+        <v>29.93079064708615</v>
       </c>
       <c r="D363" t="n">
-        <v>8.43248109784529</v>
+        <v>0.06920935291385177</v>
       </c>
     </row>
     <row r="364">
@@ -5459,10 +5459,10 @@
         <v>0</v>
       </c>
       <c r="C364" t="n">
-        <v>4.253886956944747</v>
+        <v>5.640771547342272</v>
       </c>
       <c r="D364" t="n">
-        <v>4.253886956944747</v>
+        <v>5.640771547342272</v>
       </c>
     </row>
     <row r="365">
@@ -5473,10 +5473,10 @@
         <v>10</v>
       </c>
       <c r="C365" t="n">
-        <v>10.8387211200023</v>
+        <v>8.789773310403234</v>
       </c>
       <c r="D365" t="n">
-        <v>0.8387211200022975</v>
+        <v>1.210226689596766</v>
       </c>
     </row>
     <row r="366">
@@ -5487,10 +5487,10 @@
         <v>50</v>
       </c>
       <c r="C366" t="n">
-        <v>51.05426886402916</v>
+        <v>58.08375891473761</v>
       </c>
       <c r="D366" t="n">
-        <v>1.054268864029162</v>
+        <v>8.083758914737608</v>
       </c>
     </row>
     <row r="367">
@@ -5501,10 +5501,10 @@
         <v>50</v>
       </c>
       <c r="C367" t="n">
-        <v>34.24669191413112</v>
+        <v>48.4006307526795</v>
       </c>
       <c r="D367" t="n">
-        <v>15.75330808586888</v>
+        <v>1.599369247320503</v>
       </c>
     </row>
     <row r="368">
@@ -5515,10 +5515,10 @@
         <v>20</v>
       </c>
       <c r="C368" t="n">
-        <v>28.90194690629048</v>
+        <v>24.23987597195191</v>
       </c>
       <c r="D368" t="n">
-        <v>8.901946906290483</v>
+        <v>4.239875971951907</v>
       </c>
     </row>
     <row r="369">
@@ -5529,10 +5529,10 @@
         <v>0</v>
       </c>
       <c r="C369" t="n">
-        <v>-0.06575782824478793</v>
+        <v>0.7266488016778545</v>
       </c>
       <c r="D369" t="n">
-        <v>0.06575782824478793</v>
+        <v>0.7266488016778545</v>
       </c>
     </row>
     <row r="370">
@@ -5543,10 +5543,10 @@
         <v>10</v>
       </c>
       <c r="C370" t="n">
-        <v>31.09052970971778</v>
+        <v>28.03528130646056</v>
       </c>
       <c r="D370" t="n">
-        <v>21.09052970971778</v>
+        <v>18.03528130646056</v>
       </c>
     </row>
     <row r="371">
@@ -5557,10 +5557,10 @@
         <v>0</v>
       </c>
       <c r="C371" t="n">
-        <v>4.408289771213893</v>
+        <v>4.500610535718571</v>
       </c>
       <c r="D371" t="n">
-        <v>4.408289771213893</v>
+        <v>4.500610535718571</v>
       </c>
     </row>
     <row r="372">
@@ -5571,10 +5571,10 @@
         <v>10</v>
       </c>
       <c r="C372" t="n">
-        <v>25.29655687254767</v>
+        <v>23.54230686249662</v>
       </c>
       <c r="D372" t="n">
-        <v>15.29655687254767</v>
+        <v>13.54230686249662</v>
       </c>
     </row>
     <row r="373">
@@ -5585,10 +5585,10 @@
         <v>62</v>
       </c>
       <c r="C373" t="n">
-        <v>57.2014699801079</v>
+        <v>50.92387389837731</v>
       </c>
       <c r="D373" t="n">
-        <v>4.798530019892098</v>
+        <v>11.07612610162269</v>
       </c>
     </row>
     <row r="374">
@@ -5599,10 +5599,10 @@
         <v>30</v>
       </c>
       <c r="C374" t="n">
-        <v>38.9664043026938</v>
+        <v>42.9963652046642</v>
       </c>
       <c r="D374" t="n">
-        <v>8.966404302693803</v>
+        <v>12.9963652046642</v>
       </c>
     </row>
     <row r="375">
@@ -5613,10 +5613,10 @@
         <v>30</v>
       </c>
       <c r="C375" t="n">
-        <v>40.03135179097509</v>
+        <v>48.09906047013115</v>
       </c>
       <c r="D375" t="n">
-        <v>10.03135179097509</v>
+        <v>18.09906047013115</v>
       </c>
     </row>
     <row r="376">
@@ -5627,10 +5627,10 @@
         <v>20</v>
       </c>
       <c r="C376" t="n">
-        <v>18.11126940343498</v>
+        <v>16.58106630781851</v>
       </c>
       <c r="D376" t="n">
-        <v>1.888730596565019</v>
+        <v>3.418933692181486</v>
       </c>
     </row>
     <row r="377">
@@ -5641,10 +5641,10 @@
         <v>20</v>
       </c>
       <c r="C377" t="n">
-        <v>29.28725151558739</v>
+        <v>28.89513693512236</v>
       </c>
       <c r="D377" t="n">
-        <v>9.287251515587393</v>
+        <v>8.895136935122359</v>
       </c>
     </row>
     <row r="378">
@@ -5655,10 +5655,10 @@
         <v>62</v>
       </c>
       <c r="C378" t="n">
-        <v>53.38785839846981</v>
+        <v>50.65169771847727</v>
       </c>
       <c r="D378" t="n">
-        <v>8.61214160153019</v>
+        <v>11.34830228152273</v>
       </c>
     </row>
     <row r="379">
@@ -5669,10 +5669,10 @@
         <v>10</v>
       </c>
       <c r="C379" t="n">
-        <v>17.64550187737301</v>
+        <v>16.97614501241171</v>
       </c>
       <c r="D379" t="n">
-        <v>7.645501877373015</v>
+        <v>6.976145012411713</v>
       </c>
     </row>
     <row r="380">
@@ -5683,10 +5683,10 @@
         <v>10</v>
       </c>
       <c r="C380" t="n">
-        <v>-4.681946890221901</v>
+        <v>-0.4293090062664469</v>
       </c>
       <c r="D380" t="n">
-        <v>14.6819468902219</v>
+        <v>10.42930900626645</v>
       </c>
     </row>
     <row r="381">
@@ -5697,10 +5697,10 @@
         <v>20</v>
       </c>
       <c r="C381" t="n">
-        <v>12.56367150324127</v>
+        <v>15.39700265921638</v>
       </c>
       <c r="D381" t="n">
-        <v>7.436328496758726</v>
+        <v>4.60299734078362</v>
       </c>
     </row>
     <row r="382">
@@ -5711,10 +5711,10 @@
         <v>30</v>
       </c>
       <c r="C382" t="n">
-        <v>42.44264860164148</v>
+        <v>47.40695462926707</v>
       </c>
       <c r="D382" t="n">
-        <v>12.44264860164148</v>
+        <v>17.40695462926707</v>
       </c>
     </row>
     <row r="383">
@@ -5725,10 +5725,10 @@
         <v>40</v>
       </c>
       <c r="C383" t="n">
-        <v>47.39456210229239</v>
+        <v>45.10148953427147</v>
       </c>
       <c r="D383" t="n">
-        <v>7.39456210229239</v>
+        <v>5.101489534271465</v>
       </c>
     </row>
     <row r="384">
@@ -5739,10 +5739,10 @@
         <v>50</v>
       </c>
       <c r="C384" t="n">
-        <v>52.49804172994919</v>
+        <v>46.22920206157936</v>
       </c>
       <c r="D384" t="n">
-        <v>2.498041729949186</v>
+        <v>3.770797938420635</v>
       </c>
     </row>
     <row r="385">
@@ -5753,10 +5753,10 @@
         <v>30</v>
       </c>
       <c r="C385" t="n">
-        <v>33.24706592830817</v>
+        <v>41.46070764446498</v>
       </c>
       <c r="D385" t="n">
-        <v>3.247065928308167</v>
+        <v>11.46070764446498</v>
       </c>
     </row>
     <row r="386">
@@ -5767,10 +5767,10 @@
         <v>40</v>
       </c>
       <c r="C386" t="n">
-        <v>50.32643420630576</v>
+        <v>42.32630468130436</v>
       </c>
       <c r="D386" t="n">
-        <v>10.32643420630576</v>
+        <v>2.326304681304364</v>
       </c>
     </row>
     <row r="387">
@@ -5781,10 +5781,10 @@
         <v>0</v>
       </c>
       <c r="C387" t="n">
-        <v>3.740761011830259</v>
+        <v>4.673938771767831</v>
       </c>
       <c r="D387" t="n">
-        <v>3.740761011830259</v>
+        <v>4.673938771767831</v>
       </c>
     </row>
     <row r="388">
@@ -5795,10 +5795,10 @@
         <v>62</v>
       </c>
       <c r="C388" t="n">
-        <v>45.06428926243517</v>
+        <v>46.54214841782959</v>
       </c>
       <c r="D388" t="n">
-        <v>16.93571073756483</v>
+        <v>15.45785158217041</v>
       </c>
     </row>
     <row r="389">
@@ -5809,10 +5809,10 @@
         <v>0</v>
       </c>
       <c r="C389" t="n">
-        <v>3.698436526318525</v>
+        <v>3.810073989280537</v>
       </c>
       <c r="D389" t="n">
-        <v>3.698436526318525</v>
+        <v>3.810073989280537</v>
       </c>
     </row>
     <row r="390">
@@ -5823,10 +5823,10 @@
         <v>50</v>
       </c>
       <c r="C390" t="n">
-        <v>54.47002212976123</v>
+        <v>54.4921531415775</v>
       </c>
       <c r="D390" t="n">
-        <v>4.470022129761226</v>
+        <v>4.492153141577496</v>
       </c>
     </row>
     <row r="391">
@@ -5837,10 +5837,10 @@
         <v>75</v>
       </c>
       <c r="C391" t="n">
-        <v>65.80342578769822</v>
+        <v>63.18830284399373</v>
       </c>
       <c r="D391" t="n">
-        <v>9.196574212301783</v>
+        <v>11.81169715600627</v>
       </c>
     </row>
     <row r="392">
@@ -5851,10 +5851,10 @@
         <v>50</v>
       </c>
       <c r="C392" t="n">
-        <v>38.22327870148769</v>
+        <v>41.17402190483865</v>
       </c>
       <c r="D392" t="n">
-        <v>11.77672129851231</v>
+        <v>8.825978095161346</v>
       </c>
     </row>
     <row r="393">
@@ -5865,10 +5865,10 @@
         <v>30</v>
       </c>
       <c r="C393" t="n">
-        <v>37.39050346165748</v>
+        <v>37.40265760795495</v>
       </c>
       <c r="D393" t="n">
-        <v>7.390503461657481</v>
+        <v>7.40265760795495</v>
       </c>
     </row>
     <row r="394">
@@ -5879,10 +5879,10 @@
         <v>0</v>
       </c>
       <c r="C394" t="n">
-        <v>3.328666219208762</v>
+        <v>3.796544209608625</v>
       </c>
       <c r="D394" t="n">
-        <v>3.328666219208762</v>
+        <v>3.796544209608625</v>
       </c>
     </row>
     <row r="395">
@@ -5893,10 +5893,10 @@
         <v>20</v>
       </c>
       <c r="C395" t="n">
-        <v>18.99459088589246</v>
+        <v>24.25069847240904</v>
       </c>
       <c r="D395" t="n">
-        <v>1.005409114107543</v>
+        <v>4.250698472409038</v>
       </c>
     </row>
     <row r="396">
@@ -5907,10 +5907,10 @@
         <v>20</v>
       </c>
       <c r="C396" t="n">
-        <v>30.76229545330117</v>
+        <v>32.43291851074126</v>
       </c>
       <c r="D396" t="n">
-        <v>10.76229545330117</v>
+        <v>12.43291851074126</v>
       </c>
     </row>
     <row r="397">
@@ -5921,10 +5921,10 @@
         <v>75</v>
       </c>
       <c r="C397" t="n">
-        <v>64.99004313502803</v>
+        <v>61.19139575839085</v>
       </c>
       <c r="D397" t="n">
-        <v>10.00995686497197</v>
+        <v>13.80860424160915</v>
       </c>
     </row>
     <row r="398">
@@ -5935,10 +5935,10 @@
         <v>20</v>
       </c>
       <c r="C398" t="n">
-        <v>25.56988344477576</v>
+        <v>30.68286701813308</v>
       </c>
       <c r="D398" t="n">
-        <v>5.569883444775762</v>
+        <v>10.68286701813308</v>
       </c>
     </row>
     <row r="399">
@@ -5949,10 +5949,10 @@
         <v>62</v>
       </c>
       <c r="C399" t="n">
-        <v>53.68503977179411</v>
+        <v>50.65190517007619</v>
       </c>
       <c r="D399" t="n">
-        <v>8.314960228205891</v>
+        <v>11.34809482992381</v>
       </c>
     </row>
     <row r="400">
@@ -5963,10 +5963,10 @@
         <v>30</v>
       </c>
       <c r="C400" t="n">
-        <v>54.73913642355564</v>
+        <v>55.46712878211326</v>
       </c>
       <c r="D400" t="n">
-        <v>24.73913642355564</v>
+        <v>25.46712878211326</v>
       </c>
     </row>
     <row r="401">
@@ -5977,10 +5977,10 @@
         <v>20</v>
       </c>
       <c r="C401" t="n">
-        <v>26.13172523901665</v>
+        <v>28.87499126370685</v>
       </c>
       <c r="D401" t="n">
-        <v>6.131725239016646</v>
+        <v>8.87499126370685</v>
       </c>
     </row>
     <row r="402">
@@ -5991,10 +5991,10 @@
         <v>75</v>
       </c>
       <c r="C402" t="n">
-        <v>41.16881416062049</v>
+        <v>40.68568300894523</v>
       </c>
       <c r="D402" t="n">
-        <v>33.83118583937951</v>
+        <v>34.31431699105477</v>
       </c>
     </row>
     <row r="403">
@@ -6005,10 +6005,10 @@
         <v>40</v>
       </c>
       <c r="C403" t="n">
-        <v>45.26359139281966</v>
+        <v>50.02728199026244</v>
       </c>
       <c r="D403" t="n">
-        <v>5.263591392819656</v>
+        <v>10.02728199026244</v>
       </c>
     </row>
     <row r="404">
@@ -6019,10 +6019,10 @@
         <v>75</v>
       </c>
       <c r="C404" t="n">
-        <v>63.07241766020235</v>
+        <v>61.16701431953718</v>
       </c>
       <c r="D404" t="n">
-        <v>11.92758233979765</v>
+        <v>13.83298568046282</v>
       </c>
     </row>
     <row r="405">
@@ -6033,10 +6033,10 @@
         <v>40</v>
       </c>
       <c r="C405" t="n">
-        <v>32.32505204031475</v>
+        <v>42.03308558222794</v>
       </c>
       <c r="D405" t="n">
-        <v>7.674947959685248</v>
+        <v>2.03308558222794</v>
       </c>
     </row>
     <row r="406">
@@ -6047,10 +6047,10 @@
         <v>62</v>
       </c>
       <c r="C406" t="n">
-        <v>53.60616161546889</v>
+        <v>48.11073909268802</v>
       </c>
       <c r="D406" t="n">
-        <v>8.393838384531108</v>
+        <v>13.88926090731198</v>
       </c>
     </row>
     <row r="407">
@@ -6061,10 +6061,10 @@
         <v>20</v>
       </c>
       <c r="C407" t="n">
-        <v>32.38068856678473</v>
+        <v>35.44957425050552</v>
       </c>
       <c r="D407" t="n">
-        <v>12.38068856678473</v>
+        <v>15.44957425050552</v>
       </c>
     </row>
     <row r="408">
@@ -6075,10 +6075,10 @@
         <v>75</v>
       </c>
       <c r="C408" t="n">
-        <v>80.8211886210654</v>
+        <v>78.41034396871771</v>
       </c>
       <c r="D408" t="n">
-        <v>5.821188621065403</v>
+        <v>3.410343968717712</v>
       </c>
     </row>
     <row r="409">
@@ -6089,10 +6089,10 @@
         <v>50</v>
       </c>
       <c r="C409" t="n">
-        <v>43.74553726949575</v>
+        <v>49.7924911902683</v>
       </c>
       <c r="D409" t="n">
-        <v>6.254462730504251</v>
+        <v>0.2075088097316993</v>
       </c>
     </row>
     <row r="410">
@@ -6103,10 +6103,10 @@
         <v>75</v>
       </c>
       <c r="C410" t="n">
-        <v>43.30176158514734</v>
+        <v>44.10984996572974</v>
       </c>
       <c r="D410" t="n">
-        <v>31.69823841485266</v>
+        <v>30.89015003427026</v>
       </c>
     </row>
     <row r="411">
@@ -6117,10 +6117,10 @@
         <v>40</v>
       </c>
       <c r="C411" t="n">
-        <v>51.0660175939382</v>
+        <v>47.09403315075632</v>
       </c>
       <c r="D411" t="n">
-        <v>11.0660175939382</v>
+        <v>7.094033150756324</v>
       </c>
     </row>
     <row r="412">
@@ -6131,10 +6131,10 @@
         <v>30</v>
       </c>
       <c r="C412" t="n">
-        <v>36.298665575816</v>
+        <v>29.77272868896139</v>
       </c>
       <c r="D412" t="n">
-        <v>6.298665575816003</v>
+        <v>0.2272713110386064</v>
       </c>
     </row>
     <row r="413">
@@ -6145,10 +6145,10 @@
         <v>10</v>
       </c>
       <c r="C413" t="n">
-        <v>9.177731929209791</v>
+        <v>7.277645525050794</v>
       </c>
       <c r="D413" t="n">
-        <v>0.8222680707902086</v>
+        <v>2.722354474949206</v>
       </c>
     </row>
     <row r="414">
@@ -6159,10 +6159,10 @@
         <v>0</v>
       </c>
       <c r="C414" t="n">
-        <v>3.219664873500053</v>
+        <v>4.825859595204918</v>
       </c>
       <c r="D414" t="n">
-        <v>3.219664873500053</v>
+        <v>4.825859595204918</v>
       </c>
     </row>
     <row r="415">
@@ -6173,10 +6173,10 @@
         <v>75</v>
       </c>
       <c r="C415" t="n">
-        <v>75.20452902179224</v>
+        <v>67.28275482469246</v>
       </c>
       <c r="D415" t="n">
-        <v>0.20452902179224</v>
+        <v>7.717245175307539</v>
       </c>
     </row>
     <row r="416">
@@ -6187,10 +6187,10 @@
         <v>40</v>
       </c>
       <c r="C416" t="n">
-        <v>32.80293142026833</v>
+        <v>38.18213793707562</v>
       </c>
       <c r="D416" t="n">
-        <v>7.19706857973167</v>
+        <v>1.817862062924384</v>
       </c>
     </row>
     <row r="417">
@@ -6201,10 +6201,10 @@
         <v>10</v>
       </c>
       <c r="C417" t="n">
-        <v>29.08177296053599</v>
+        <v>22.65957911046037</v>
       </c>
       <c r="D417" t="n">
-        <v>19.08177296053599</v>
+        <v>12.65957911046037</v>
       </c>
     </row>
     <row r="418">
@@ -6215,10 +6215,10 @@
         <v>30</v>
       </c>
       <c r="C418" t="n">
-        <v>52.54808506699543</v>
+        <v>54.3859096080508</v>
       </c>
       <c r="D418" t="n">
-        <v>22.54808506699543</v>
+        <v>24.3859096080508</v>
       </c>
     </row>
     <row r="419">
@@ -6229,10 +6229,10 @@
         <v>40</v>
       </c>
       <c r="C419" t="n">
-        <v>32.72789658723843</v>
+        <v>43.28348339473615</v>
       </c>
       <c r="D419" t="n">
-        <v>7.272103412761567</v>
+        <v>3.283483394736152</v>
       </c>
     </row>
     <row r="420">
@@ -6243,10 +6243,10 @@
         <v>10</v>
       </c>
       <c r="C420" t="n">
-        <v>10.96550786502666</v>
+        <v>17.80372107579019</v>
       </c>
       <c r="D420" t="n">
-        <v>0.9655078650266589</v>
+        <v>7.803721075790193</v>
       </c>
     </row>
     <row r="421">
@@ -6257,10 +6257,10 @@
         <v>30</v>
       </c>
       <c r="C421" t="n">
-        <v>37.96862360523699</v>
+        <v>44.65742009034018</v>
       </c>
       <c r="D421" t="n">
-        <v>7.968623605236992</v>
+        <v>14.65742009034018</v>
       </c>
     </row>
     <row r="422">
@@ -6271,10 +6271,10 @@
         <v>20</v>
       </c>
       <c r="C422" t="n">
-        <v>27.29217048272667</v>
+        <v>22.96677164287847</v>
       </c>
       <c r="D422" t="n">
-        <v>7.292170482726668</v>
+        <v>2.96677164287847</v>
       </c>
     </row>
     <row r="423">
@@ -6285,10 +6285,10 @@
         <v>10</v>
       </c>
       <c r="C423" t="n">
-        <v>7.413305854557265</v>
+        <v>7.353680709700702</v>
       </c>
       <c r="D423" t="n">
-        <v>2.586694145442735</v>
+        <v>2.646319290299298</v>
       </c>
     </row>
     <row r="424">
@@ -6299,10 +6299,10 @@
         <v>50</v>
       </c>
       <c r="C424" t="n">
-        <v>57.61701262381306</v>
+        <v>47.1164877317954</v>
       </c>
       <c r="D424" t="n">
-        <v>7.617012623813061</v>
+        <v>2.883512268204598</v>
       </c>
     </row>
     <row r="425">
@@ -6313,10 +6313,10 @@
         <v>40</v>
       </c>
       <c r="C425" t="n">
-        <v>27.39924172092879</v>
+        <v>23.72174271474209</v>
       </c>
       <c r="D425" t="n">
-        <v>12.60075827907121</v>
+        <v>16.27825728525791</v>
       </c>
     </row>
     <row r="426">
@@ -6327,10 +6327,10 @@
         <v>0</v>
       </c>
       <c r="C426" t="n">
-        <v>6.047564713322089</v>
+        <v>6.155075499823267</v>
       </c>
       <c r="D426" t="n">
-        <v>6.047564713322089</v>
+        <v>6.155075499823267</v>
       </c>
     </row>
     <row r="427">
@@ -6341,10 +6341,10 @@
         <v>10</v>
       </c>
       <c r="C427" t="n">
-        <v>-4.746612352954536</v>
+        <v>-0.5439691409044638</v>
       </c>
       <c r="D427" t="n">
-        <v>14.74661235295454</v>
+        <v>10.54396914090446</v>
       </c>
     </row>
     <row r="428">
@@ -6355,10 +6355,10 @@
         <v>75</v>
       </c>
       <c r="C428" t="n">
-        <v>51.94786726380473</v>
+        <v>56.96686406637916</v>
       </c>
       <c r="D428" t="n">
-        <v>23.05213273619527</v>
+        <v>18.03313593362084</v>
       </c>
     </row>
     <row r="429">
@@ -6369,10 +6369,10 @@
         <v>20</v>
       </c>
       <c r="C429" t="n">
-        <v>28.8478057304569</v>
+        <v>30.56886949371527</v>
       </c>
       <c r="D429" t="n">
-        <v>8.847805730456898</v>
+        <v>10.56886949371527</v>
       </c>
     </row>
     <row r="430">
@@ -6383,10 +6383,10 @@
         <v>20</v>
       </c>
       <c r="C430" t="n">
-        <v>13.39471746769486</v>
+        <v>18.1233054101093</v>
       </c>
       <c r="D430" t="n">
-        <v>6.605282532305139</v>
+        <v>1.876694589890704</v>
       </c>
     </row>
     <row r="431">
@@ -6397,10 +6397,10 @@
         <v>40</v>
       </c>
       <c r="C431" t="n">
-        <v>48.43744628965526</v>
+        <v>44.01945472876215</v>
       </c>
       <c r="D431" t="n">
-        <v>8.437446289655256</v>
+        <v>4.019454728762149</v>
       </c>
     </row>
   </sheetData>
